--- a/BackTest/2020-01-21 BackTest FNB.xlsx
+++ b/BackTest/2020-01-21 BackTest FNB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M311"/>
+  <dimension ref="A1:M312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.228</v>
+        <v>2.239</v>
       </c>
       <c r="C2" t="n">
-        <v>2.226</v>
+        <v>2.239</v>
       </c>
       <c r="D2" t="n">
-        <v>2.228</v>
+        <v>2.239</v>
       </c>
       <c r="E2" t="n">
-        <v>2.226</v>
+        <v>2.239</v>
       </c>
       <c r="F2" t="n">
-        <v>30240</v>
+        <v>241373.9612</v>
       </c>
       <c r="G2" t="n">
-        <v>2.259366666666664</v>
+        <v>2.260349999999997</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>2.228</v>
       </c>
       <c r="C3" t="n">
-        <v>2.228</v>
+        <v>2.226</v>
       </c>
       <c r="D3" t="n">
         <v>2.228</v>
       </c>
       <c r="E3" t="n">
-        <v>2.228</v>
+        <v>2.226</v>
       </c>
       <c r="F3" t="n">
-        <v>10693.2495</v>
+        <v>30240</v>
       </c>
       <c r="G3" t="n">
-        <v>2.258416666666664</v>
+        <v>2.259366666666664</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.249</v>
+        <v>2.228</v>
       </c>
       <c r="C4" t="n">
-        <v>2.249</v>
+        <v>2.228</v>
       </c>
       <c r="D4" t="n">
-        <v>2.249</v>
+        <v>2.228</v>
       </c>
       <c r="E4" t="n">
-        <v>2.249</v>
+        <v>2.228</v>
       </c>
       <c r="F4" t="n">
-        <v>5000</v>
+        <v>10693.2495</v>
       </c>
       <c r="G4" t="n">
-        <v>2.258233333333331</v>
+        <v>2.258416666666664</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -541,19 +541,19 @@
         <v>2.249</v>
       </c>
       <c r="C5" t="n">
-        <v>2.255</v>
+        <v>2.249</v>
       </c>
       <c r="D5" t="n">
-        <v>2.255</v>
+        <v>2.249</v>
       </c>
       <c r="E5" t="n">
         <v>2.249</v>
       </c>
       <c r="F5" t="n">
-        <v>153795.1364</v>
+        <v>5000</v>
       </c>
       <c r="G5" t="n">
-        <v>2.258149999999998</v>
+        <v>2.258233333333331</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.253</v>
+        <v>2.249</v>
       </c>
       <c r="C6" t="n">
-        <v>2.253</v>
+        <v>2.255</v>
       </c>
       <c r="D6" t="n">
-        <v>2.27</v>
+        <v>2.255</v>
       </c>
       <c r="E6" t="n">
-        <v>2.253</v>
+        <v>2.249</v>
       </c>
       <c r="F6" t="n">
-        <v>570742.8047</v>
+        <v>153795.1364</v>
       </c>
       <c r="G6" t="n">
-        <v>2.258199999999997</v>
+        <v>2.258149999999998</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -614,16 +614,16 @@
         <v>2.253</v>
       </c>
       <c r="D7" t="n">
-        <v>2.253</v>
+        <v>2.27</v>
       </c>
       <c r="E7" t="n">
         <v>2.253</v>
       </c>
       <c r="F7" t="n">
-        <v>2431.1956</v>
+        <v>570742.8047</v>
       </c>
       <c r="G7" t="n">
-        <v>2.258299999999997</v>
+        <v>2.258199999999997</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>2.253</v>
       </c>
       <c r="F8" t="n">
-        <v>568.8044</v>
+        <v>2431.1956</v>
       </c>
       <c r="G8" t="n">
-        <v>2.25868333333333</v>
+        <v>2.258299999999997</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2.228</v>
+        <v>2.253</v>
       </c>
       <c r="C9" t="n">
-        <v>2.228</v>
+        <v>2.253</v>
       </c>
       <c r="D9" t="n">
-        <v>2.228</v>
+        <v>2.253</v>
       </c>
       <c r="E9" t="n">
-        <v>2.228</v>
+        <v>2.253</v>
       </c>
       <c r="F9" t="n">
-        <v>230</v>
+        <v>568.8044</v>
       </c>
       <c r="G9" t="n">
-        <v>2.258366666666664</v>
+        <v>2.25868333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>2.228</v>
       </c>
       <c r="F10" t="n">
-        <v>799431.1956</v>
+        <v>230</v>
       </c>
       <c r="G10" t="n">
-        <v>2.258166666666664</v>
+        <v>2.258366666666664</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.241</v>
+        <v>2.228</v>
       </c>
       <c r="C11" t="n">
-        <v>2.229</v>
+        <v>2.228</v>
       </c>
       <c r="D11" t="n">
-        <v>2.241</v>
+        <v>2.228</v>
       </c>
       <c r="E11" t="n">
-        <v>2.229</v>
+        <v>2.228</v>
       </c>
       <c r="F11" t="n">
-        <v>151724.868</v>
+        <v>799431.1956</v>
       </c>
       <c r="G11" t="n">
-        <v>2.257983333333331</v>
+        <v>2.258166666666664</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2.23</v>
+        <v>2.241</v>
       </c>
       <c r="C12" t="n">
-        <v>2.23</v>
+        <v>2.229</v>
       </c>
       <c r="D12" t="n">
-        <v>2.231</v>
+        <v>2.241</v>
       </c>
       <c r="E12" t="n">
-        <v>2.23</v>
+        <v>2.229</v>
       </c>
       <c r="F12" t="n">
-        <v>1150600</v>
+        <v>151724.868</v>
       </c>
       <c r="G12" t="n">
-        <v>2.257649999999997</v>
+        <v>2.257983333333331</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,19 +818,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2.231</v>
+        <v>2.23</v>
       </c>
       <c r="C13" t="n">
-        <v>2.231</v>
+        <v>2.23</v>
       </c>
       <c r="D13" t="n">
         <v>2.231</v>
       </c>
       <c r="E13" t="n">
-        <v>2.231</v>
+        <v>2.23</v>
       </c>
       <c r="F13" t="n">
-        <v>230</v>
+        <v>1150600</v>
       </c>
       <c r="G13" t="n">
         <v>2.257649999999997</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2.232</v>
+        <v>2.231</v>
       </c>
       <c r="C14" t="n">
-        <v>2.24</v>
+        <v>2.231</v>
       </c>
       <c r="D14" t="n">
-        <v>2.241</v>
+        <v>2.231</v>
       </c>
       <c r="E14" t="n">
-        <v>2.232</v>
+        <v>2.231</v>
       </c>
       <c r="F14" t="n">
-        <v>68252.553</v>
+        <v>230</v>
       </c>
       <c r="G14" t="n">
-        <v>2.257799999999997</v>
+        <v>2.257649999999997</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
+        <v>2.232</v>
+      </c>
+      <c r="C15" t="n">
         <v>2.24</v>
       </c>
-      <c r="C15" t="n">
-        <v>2.249</v>
-      </c>
       <c r="D15" t="n">
-        <v>2.249</v>
+        <v>2.241</v>
       </c>
       <c r="E15" t="n">
-        <v>2.24</v>
+        <v>2.232</v>
       </c>
       <c r="F15" t="n">
-        <v>165026.06</v>
+        <v>68252.553</v>
       </c>
       <c r="G15" t="n">
-        <v>2.257933333333331</v>
+        <v>2.257799999999997</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="C16" t="n">
-        <v>2.26</v>
+        <v>2.249</v>
       </c>
       <c r="D16" t="n">
-        <v>2.26</v>
+        <v>2.249</v>
       </c>
       <c r="E16" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="F16" t="n">
-        <v>13827.1672</v>
+        <v>165026.06</v>
       </c>
       <c r="G16" t="n">
-        <v>2.257766666666663</v>
+        <v>2.257933333333331</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>2.26</v>
       </c>
       <c r="F17" t="n">
-        <v>1162448.268</v>
+        <v>13827.1672</v>
       </c>
       <c r="G17" t="n">
-        <v>2.257449999999997</v>
+        <v>2.257766666666663</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2.267</v>
+        <v>2.26</v>
       </c>
       <c r="C18" t="n">
-        <v>2.267</v>
+        <v>2.26</v>
       </c>
       <c r="D18" t="n">
-        <v>2.267</v>
+        <v>2.26</v>
       </c>
       <c r="E18" t="n">
-        <v>2.267</v>
+        <v>2.26</v>
       </c>
       <c r="F18" t="n">
-        <v>476576.371</v>
+        <v>1162448.268</v>
       </c>
       <c r="G18" t="n">
-        <v>2.257249999999997</v>
+        <v>2.257449999999997</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2.268</v>
+        <v>2.267</v>
       </c>
       <c r="C19" t="n">
-        <v>2.268</v>
+        <v>2.267</v>
       </c>
       <c r="D19" t="n">
-        <v>2.268</v>
+        <v>2.267</v>
       </c>
       <c r="E19" t="n">
-        <v>2.268</v>
+        <v>2.267</v>
       </c>
       <c r="F19" t="n">
-        <v>327782.9487</v>
+        <v>476576.371</v>
       </c>
       <c r="G19" t="n">
-        <v>2.256999999999997</v>
+        <v>2.257249999999997</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2.269</v>
+        <v>2.268</v>
       </c>
       <c r="C20" t="n">
-        <v>2.269</v>
+        <v>2.268</v>
       </c>
       <c r="D20" t="n">
-        <v>2.269</v>
+        <v>2.268</v>
       </c>
       <c r="E20" t="n">
-        <v>2.269</v>
+        <v>2.268</v>
       </c>
       <c r="F20" t="n">
-        <v>735.4992</v>
+        <v>327782.9487</v>
       </c>
       <c r="G20" t="n">
-        <v>2.256516666666664</v>
+        <v>2.256999999999997</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2.242</v>
+        <v>2.269</v>
       </c>
       <c r="C21" t="n">
-        <v>2.24</v>
+        <v>2.269</v>
       </c>
       <c r="D21" t="n">
-        <v>2.242</v>
+        <v>2.269</v>
       </c>
       <c r="E21" t="n">
-        <v>2.24</v>
+        <v>2.269</v>
       </c>
       <c r="F21" t="n">
-        <v>193271.944</v>
+        <v>735.4992</v>
       </c>
       <c r="G21" t="n">
-        <v>2.255549999999997</v>
+        <v>2.256516666666664</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2.232</v>
+        <v>2.242</v>
       </c>
       <c r="C22" t="n">
-        <v>2.232</v>
+        <v>2.24</v>
       </c>
       <c r="D22" t="n">
-        <v>2.232</v>
+        <v>2.242</v>
       </c>
       <c r="E22" t="n">
-        <v>2.232</v>
+        <v>2.24</v>
       </c>
       <c r="F22" t="n">
-        <v>985495.3858</v>
+        <v>193271.944</v>
       </c>
       <c r="G22" t="n">
-        <v>2.254299999999998</v>
+        <v>2.255549999999997</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2.268</v>
+        <v>2.232</v>
       </c>
       <c r="C23" t="n">
-        <v>2.268</v>
+        <v>2.232</v>
       </c>
       <c r="D23" t="n">
-        <v>2.268</v>
+        <v>2.232</v>
       </c>
       <c r="E23" t="n">
-        <v>2.268</v>
+        <v>2.232</v>
       </c>
       <c r="F23" t="n">
-        <v>156180.276</v>
+        <v>985495.3858</v>
       </c>
       <c r="G23" t="n">
-        <v>2.253649999999998</v>
+        <v>2.254299999999998</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>2.269</v>
+        <v>2.268</v>
       </c>
       <c r="C24" t="n">
-        <v>2.241</v>
+        <v>2.268</v>
       </c>
       <c r="D24" t="n">
-        <v>2.269</v>
+        <v>2.268</v>
       </c>
       <c r="E24" t="n">
-        <v>2.241</v>
+        <v>2.268</v>
       </c>
       <c r="F24" t="n">
-        <v>216661.24</v>
+        <v>156180.276</v>
       </c>
       <c r="G24" t="n">
-        <v>2.252549999999998</v>
+        <v>2.253649999999998</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2.241</v>
+        <v>2.269</v>
       </c>
       <c r="C25" t="n">
         <v>2.241</v>
       </c>
       <c r="D25" t="n">
-        <v>2.241</v>
+        <v>2.269</v>
       </c>
       <c r="E25" t="n">
         <v>2.241</v>
       </c>
       <c r="F25" t="n">
-        <v>43483.1731</v>
+        <v>216661.24</v>
       </c>
       <c r="G25" t="n">
-        <v>2.251449999999998</v>
+        <v>2.252549999999998</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>2.241</v>
       </c>
       <c r="F26" t="n">
-        <v>260</v>
+        <v>43483.1731</v>
       </c>
       <c r="G26" t="n">
-        <v>2.250349999999999</v>
+        <v>2.251449999999998</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1320,10 +1320,10 @@
         <v>2.241</v>
       </c>
       <c r="F27" t="n">
-        <v>259644.4132</v>
+        <v>260</v>
       </c>
       <c r="G27" t="n">
-        <v>2.249249999999999</v>
+        <v>2.250349999999999</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2.267</v>
+        <v>2.241</v>
       </c>
       <c r="C28" t="n">
-        <v>2.268</v>
+        <v>2.241</v>
       </c>
       <c r="D28" t="n">
-        <v>2.268</v>
+        <v>2.241</v>
       </c>
       <c r="E28" t="n">
-        <v>2.267</v>
+        <v>2.241</v>
       </c>
       <c r="F28" t="n">
-        <v>200230</v>
+        <v>259644.4132</v>
       </c>
       <c r="G28" t="n">
-        <v>2.248566666666666</v>
+        <v>2.249249999999999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2.268</v>
+        <v>2.267</v>
       </c>
       <c r="C29" t="n">
         <v>2.268</v>
@@ -1387,13 +1387,13 @@
         <v>2.268</v>
       </c>
       <c r="E29" t="n">
-        <v>2.268</v>
+        <v>2.267</v>
       </c>
       <c r="F29" t="n">
-        <v>230</v>
+        <v>200230</v>
       </c>
       <c r="G29" t="n">
-        <v>2.248516666666666</v>
+        <v>2.248566666666666</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>2.268</v>
       </c>
       <c r="F30" t="n">
-        <v>326669.4994</v>
+        <v>230</v>
       </c>
       <c r="G30" t="n">
-        <v>2.248466666666666</v>
+        <v>2.248516666666666</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2.269</v>
+        <v>2.268</v>
       </c>
       <c r="C31" t="n">
-        <v>2.269</v>
+        <v>2.268</v>
       </c>
       <c r="D31" t="n">
-        <v>2.269</v>
+        <v>2.268</v>
       </c>
       <c r="E31" t="n">
-        <v>2.269</v>
+        <v>2.268</v>
       </c>
       <c r="F31" t="n">
-        <v>444</v>
+        <v>326669.4994</v>
       </c>
       <c r="G31" t="n">
-        <v>2.248533333333333</v>
+        <v>2.248466666666666</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2.27</v>
+        <v>2.269</v>
       </c>
       <c r="C32" t="n">
-        <v>2.27</v>
+        <v>2.269</v>
       </c>
       <c r="D32" t="n">
-        <v>2.27</v>
+        <v>2.269</v>
       </c>
       <c r="E32" t="n">
-        <v>2.27</v>
+        <v>2.269</v>
       </c>
       <c r="F32" t="n">
         <v>444</v>
       </c>
       <c r="G32" t="n">
-        <v>2.248516666666667</v>
+        <v>2.248533333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1521,19 +1521,19 @@
         <v>2.27</v>
       </c>
       <c r="C33" t="n">
-        <v>2.278</v>
+        <v>2.27</v>
       </c>
       <c r="D33" t="n">
-        <v>2.278</v>
+        <v>2.27</v>
       </c>
       <c r="E33" t="n">
         <v>2.27</v>
       </c>
       <c r="F33" t="n">
-        <v>32000</v>
+        <v>444</v>
       </c>
       <c r="G33" t="n">
-        <v>2.248733333333334</v>
+        <v>2.248516666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="C34" t="n">
         <v>2.278</v>
       </c>
-      <c r="C34" t="n">
-        <v>2.288</v>
-      </c>
       <c r="D34" t="n">
-        <v>2.288</v>
+        <v>2.278</v>
       </c>
       <c r="E34" t="n">
-        <v>2.278</v>
+        <v>2.27</v>
       </c>
       <c r="F34" t="n">
-        <v>784645.7817000001</v>
+        <v>32000</v>
       </c>
       <c r="G34" t="n">
-        <v>2.248750000000001</v>
+        <v>2.248733333333334</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
+        <v>2.278</v>
+      </c>
+      <c r="C35" t="n">
         <v>2.288</v>
       </c>
-      <c r="C35" t="n">
-        <v>2.294</v>
-      </c>
       <c r="D35" t="n">
-        <v>2.294</v>
+        <v>2.288</v>
       </c>
       <c r="E35" t="n">
-        <v>2.276</v>
+        <v>2.278</v>
       </c>
       <c r="F35" t="n">
-        <v>70051.39380000001</v>
+        <v>784645.7817000001</v>
       </c>
       <c r="G35" t="n">
-        <v>2.249150000000001</v>
+        <v>2.248750000000001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
+        <v>2.288</v>
+      </c>
+      <c r="C36" t="n">
         <v>2.294</v>
       </c>
-      <c r="C36" t="n">
-        <v>2.281</v>
-      </c>
       <c r="D36" t="n">
-        <v>2.3</v>
+        <v>2.294</v>
       </c>
       <c r="E36" t="n">
-        <v>2.281</v>
+        <v>2.276</v>
       </c>
       <c r="F36" t="n">
-        <v>311377.4262</v>
+        <v>70051.39380000001</v>
       </c>
       <c r="G36" t="n">
-        <v>2.249416666666668</v>
+        <v>2.249150000000001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2.293</v>
+        <v>2.294</v>
       </c>
       <c r="C37" t="n">
-        <v>2.293</v>
+        <v>2.281</v>
       </c>
       <c r="D37" t="n">
-        <v>2.293</v>
+        <v>2.3</v>
       </c>
       <c r="E37" t="n">
-        <v>2.293</v>
+        <v>2.281</v>
       </c>
       <c r="F37" t="n">
-        <v>260</v>
+        <v>311377.4262</v>
       </c>
       <c r="G37" t="n">
-        <v>2.249866666666668</v>
+        <v>2.249416666666668</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2.3</v>
+        <v>2.293</v>
       </c>
       <c r="C38" t="n">
-        <v>2.3</v>
+        <v>2.293</v>
       </c>
       <c r="D38" t="n">
-        <v>2.3</v>
+        <v>2.293</v>
       </c>
       <c r="E38" t="n">
-        <v>2.3</v>
+        <v>2.293</v>
       </c>
       <c r="F38" t="n">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="G38" t="n">
-        <v>2.250500000000001</v>
+        <v>2.249866666666668</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>2.291</v>
+        <v>2.3</v>
       </c>
       <c r="C39" t="n">
-        <v>2.291</v>
+        <v>2.3</v>
       </c>
       <c r="D39" t="n">
-        <v>2.291</v>
+        <v>2.3</v>
       </c>
       <c r="E39" t="n">
-        <v>2.291</v>
+        <v>2.3</v>
       </c>
       <c r="F39" t="n">
-        <v>1430</v>
+        <v>230</v>
       </c>
       <c r="G39" t="n">
-        <v>2.251000000000002</v>
+        <v>2.250500000000001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2.29</v>
+        <v>2.291</v>
       </c>
       <c r="C40" t="n">
-        <v>2.281</v>
+        <v>2.291</v>
       </c>
       <c r="D40" t="n">
-        <v>2.29</v>
+        <v>2.291</v>
       </c>
       <c r="E40" t="n">
-        <v>2.281</v>
+        <v>2.291</v>
       </c>
       <c r="F40" t="n">
-        <v>1672.47</v>
+        <v>1430</v>
       </c>
       <c r="G40" t="n">
-        <v>2.251333333333335</v>
+        <v>2.251000000000002</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1801,19 +1801,19 @@
         <v>2.29</v>
       </c>
       <c r="C41" t="n">
-        <v>2.29</v>
+        <v>2.281</v>
       </c>
       <c r="D41" t="n">
         <v>2.29</v>
       </c>
       <c r="E41" t="n">
-        <v>2.29</v>
+        <v>2.281</v>
       </c>
       <c r="F41" t="n">
-        <v>230</v>
+        <v>1672.47</v>
       </c>
       <c r="G41" t="n">
-        <v>2.251916666666668</v>
+        <v>2.251333333333335</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>2.281</v>
+        <v>2.29</v>
       </c>
       <c r="C42" t="n">
-        <v>2.281</v>
+        <v>2.29</v>
       </c>
       <c r="D42" t="n">
-        <v>2.281</v>
+        <v>2.29</v>
       </c>
       <c r="E42" t="n">
-        <v>2.281</v>
+        <v>2.29</v>
       </c>
       <c r="F42" t="n">
-        <v>62787.9488</v>
+        <v>230</v>
       </c>
       <c r="G42" t="n">
-        <v>2.252350000000002</v>
+        <v>2.251916666666668</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>2.281</v>
       </c>
       <c r="F43" t="n">
-        <v>898728.6279</v>
+        <v>62787.9488</v>
       </c>
       <c r="G43" t="n">
-        <v>2.252866666666669</v>
+        <v>2.252350000000002</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2.28</v>
+        <v>2.281</v>
       </c>
       <c r="C44" t="n">
-        <v>2.28</v>
+        <v>2.281</v>
       </c>
       <c r="D44" t="n">
-        <v>2.28</v>
+        <v>2.281</v>
       </c>
       <c r="E44" t="n">
-        <v>2.28</v>
+        <v>2.281</v>
       </c>
       <c r="F44" t="n">
-        <v>240</v>
+        <v>898728.6279</v>
       </c>
       <c r="G44" t="n">
-        <v>2.253650000000002</v>
+        <v>2.252866666666669</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1950,10 +1950,10 @@
         <v>2.28</v>
       </c>
       <c r="F45" t="n">
-        <v>1429.7326</v>
+        <v>240</v>
       </c>
       <c r="G45" t="n">
-        <v>2.254166666666669</v>
+        <v>2.253650000000002</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2.276</v>
+        <v>2.28</v>
       </c>
       <c r="C46" t="n">
-        <v>2.276</v>
+        <v>2.28</v>
       </c>
       <c r="D46" t="n">
-        <v>2.276</v>
+        <v>2.28</v>
       </c>
       <c r="E46" t="n">
-        <v>2.276</v>
+        <v>2.28</v>
       </c>
       <c r="F46" t="n">
-        <v>3363.2224</v>
+        <v>1429.7326</v>
       </c>
       <c r="G46" t="n">
-        <v>2.254766666666669</v>
+        <v>2.254166666666669</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2.275</v>
+        <v>2.276</v>
       </c>
       <c r="C47" t="n">
-        <v>2.267</v>
+        <v>2.276</v>
       </c>
       <c r="D47" t="n">
-        <v>2.275</v>
+        <v>2.276</v>
       </c>
       <c r="E47" t="n">
-        <v>2.252</v>
+        <v>2.276</v>
       </c>
       <c r="F47" t="n">
-        <v>25499.7022</v>
+        <v>3363.2224</v>
       </c>
       <c r="G47" t="n">
-        <v>2.255216666666668</v>
+        <v>2.254766666666669</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
+        <v>2.275</v>
+      </c>
+      <c r="C48" t="n">
         <v>2.267</v>
       </c>
-      <c r="C48" t="n">
-        <v>2.265</v>
-      </c>
       <c r="D48" t="n">
-        <v>2.267</v>
+        <v>2.275</v>
       </c>
       <c r="E48" t="n">
-        <v>2.265</v>
+        <v>2.252</v>
       </c>
       <c r="F48" t="n">
-        <v>220245.7289</v>
+        <v>25499.7022</v>
       </c>
       <c r="G48" t="n">
-        <v>2.255300000000001</v>
+        <v>2.255216666666668</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2078,10 +2078,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>2.267</v>
+      </c>
+      <c r="C49" t="n">
         <v>2.265</v>
-      </c>
-      <c r="C49" t="n">
-        <v>2.267</v>
       </c>
       <c r="D49" t="n">
         <v>2.267</v>
@@ -2090,10 +2090,10 @@
         <v>2.265</v>
       </c>
       <c r="F49" t="n">
-        <v>539554.3073</v>
+        <v>220245.7289</v>
       </c>
       <c r="G49" t="n">
-        <v>2.255750000000001</v>
+        <v>2.255300000000001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2.273</v>
+        <v>2.265</v>
       </c>
       <c r="C50" t="n">
-        <v>2.273</v>
+        <v>2.267</v>
       </c>
       <c r="D50" t="n">
-        <v>2.273</v>
+        <v>2.267</v>
       </c>
       <c r="E50" t="n">
-        <v>2.273</v>
+        <v>2.265</v>
       </c>
       <c r="F50" t="n">
-        <v>240</v>
+        <v>539554.3073</v>
       </c>
       <c r="G50" t="n">
-        <v>2.256300000000001</v>
+        <v>2.255750000000001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2151,19 +2151,19 @@
         <v>2.273</v>
       </c>
       <c r="C51" t="n">
-        <v>2.262</v>
+        <v>2.273</v>
       </c>
       <c r="D51" t="n">
         <v>2.273</v>
       </c>
       <c r="E51" t="n">
-        <v>2.262</v>
+        <v>2.273</v>
       </c>
       <c r="F51" t="n">
-        <v>233221.8178</v>
+        <v>240</v>
       </c>
       <c r="G51" t="n">
-        <v>2.256666666666668</v>
+        <v>2.256300000000001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2.274</v>
+        <v>2.273</v>
       </c>
       <c r="C52" t="n">
-        <v>2.274</v>
+        <v>2.262</v>
       </c>
       <c r="D52" t="n">
-        <v>2.274</v>
+        <v>2.273</v>
       </c>
       <c r="E52" t="n">
-        <v>2.274</v>
+        <v>2.262</v>
       </c>
       <c r="F52" t="n">
-        <v>230</v>
+        <v>233221.8178</v>
       </c>
       <c r="G52" t="n">
-        <v>2.257300000000001</v>
+        <v>2.256666666666668</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2218,22 +2218,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2.273</v>
+        <v>2.274</v>
       </c>
       <c r="C53" t="n">
-        <v>2.273</v>
+        <v>2.274</v>
       </c>
       <c r="D53" t="n">
-        <v>2.273</v>
+        <v>2.274</v>
       </c>
       <c r="E53" t="n">
-        <v>2.273</v>
+        <v>2.274</v>
       </c>
       <c r="F53" t="n">
-        <v>438850.351</v>
+        <v>230</v>
       </c>
       <c r="G53" t="n">
-        <v>2.257850000000001</v>
+        <v>2.257300000000001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2.258</v>
+        <v>2.273</v>
       </c>
       <c r="C54" t="n">
-        <v>2.258</v>
+        <v>2.273</v>
       </c>
       <c r="D54" t="n">
-        <v>2.258</v>
+        <v>2.273</v>
       </c>
       <c r="E54" t="n">
-        <v>2.258</v>
+        <v>2.273</v>
       </c>
       <c r="F54" t="n">
-        <v>742.3881</v>
+        <v>438850.351</v>
       </c>
       <c r="G54" t="n">
-        <v>2.258500000000001</v>
+        <v>2.257850000000001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2.274</v>
+        <v>2.258</v>
       </c>
       <c r="C55" t="n">
-        <v>2.274</v>
+        <v>2.258</v>
       </c>
       <c r="D55" t="n">
-        <v>2.274</v>
+        <v>2.258</v>
       </c>
       <c r="E55" t="n">
-        <v>2.274</v>
+        <v>2.258</v>
       </c>
       <c r="F55" t="n">
-        <v>21987.6869</v>
+        <v>742.3881</v>
       </c>
       <c r="G55" t="n">
-        <v>2.259066666666668</v>
+        <v>2.258500000000001</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>21987.6869</v>
       </c>
       <c r="G56" t="n">
-        <v>2.259933333333334</v>
+        <v>2.259066666666668</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2.271</v>
+        <v>2.274</v>
       </c>
       <c r="C57" t="n">
-        <v>2.259</v>
+        <v>2.274</v>
       </c>
       <c r="D57" t="n">
-        <v>2.271</v>
+        <v>2.274</v>
       </c>
       <c r="E57" t="n">
-        <v>2.259</v>
+        <v>2.274</v>
       </c>
       <c r="F57" t="n">
-        <v>5448.6815</v>
+        <v>21987.6869</v>
       </c>
       <c r="G57" t="n">
-        <v>2.260566666666668</v>
+        <v>2.259933333333334</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
+        <v>2.271</v>
+      </c>
+      <c r="C58" t="n">
         <v>2.259</v>
       </c>
-      <c r="C58" t="n">
-        <v>2.252</v>
-      </c>
       <c r="D58" t="n">
+        <v>2.271</v>
+      </c>
+      <c r="E58" t="n">
         <v>2.259</v>
       </c>
-      <c r="E58" t="n">
-        <v>2.252</v>
-      </c>
       <c r="F58" t="n">
-        <v>222973.2605</v>
+        <v>5448.6815</v>
       </c>
       <c r="G58" t="n">
-        <v>2.260466666666667</v>
+        <v>2.260566666666668</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
+        <v>2.259</v>
+      </c>
+      <c r="C59" t="n">
         <v>2.252</v>
       </c>
-      <c r="C59" t="n">
-        <v>2.274</v>
-      </c>
       <c r="D59" t="n">
-        <v>2.274</v>
+        <v>2.259</v>
       </c>
       <c r="E59" t="n">
         <v>2.252</v>
       </c>
       <c r="F59" t="n">
-        <v>337764.5221</v>
+        <v>222973.2605</v>
       </c>
       <c r="G59" t="n">
-        <v>2.261100000000001</v>
+        <v>2.260466666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2.27</v>
+        <v>2.252</v>
       </c>
       <c r="C60" t="n">
-        <v>2.246</v>
+        <v>2.274</v>
       </c>
       <c r="D60" t="n">
-        <v>2.27</v>
+        <v>2.274</v>
       </c>
       <c r="E60" t="n">
-        <v>2.246</v>
+        <v>2.252</v>
       </c>
       <c r="F60" t="n">
-        <v>206753.8228</v>
+        <v>337764.5221</v>
       </c>
       <c r="G60" t="n">
-        <v>2.261233333333335</v>
+        <v>2.261100000000001</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2.274</v>
+        <v>2.27</v>
       </c>
       <c r="C61" t="n">
-        <v>2.242</v>
+        <v>2.246</v>
       </c>
       <c r="D61" t="n">
-        <v>2.274</v>
+        <v>2.27</v>
       </c>
       <c r="E61" t="n">
-        <v>2.242</v>
+        <v>2.246</v>
       </c>
       <c r="F61" t="n">
-        <v>961609.798</v>
+        <v>206753.8228</v>
       </c>
       <c r="G61" t="n">
-        <v>2.261283333333334</v>
+        <v>2.261233333333335</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2.271</v>
+        <v>2.274</v>
       </c>
       <c r="C62" t="n">
-        <v>2.271</v>
+        <v>2.242</v>
       </c>
       <c r="D62" t="n">
-        <v>2.271</v>
+        <v>2.274</v>
       </c>
       <c r="E62" t="n">
-        <v>2.271</v>
+        <v>2.242</v>
       </c>
       <c r="F62" t="n">
-        <v>244</v>
+        <v>961609.798</v>
       </c>
       <c r="G62" t="n">
-        <v>2.262033333333334</v>
+        <v>2.261283333333334</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2.27</v>
+        <v>2.271</v>
       </c>
       <c r="C63" t="n">
-        <v>2.27</v>
+        <v>2.271</v>
       </c>
       <c r="D63" t="n">
-        <v>2.27</v>
+        <v>2.271</v>
       </c>
       <c r="E63" t="n">
-        <v>2.27</v>
+        <v>2.271</v>
       </c>
       <c r="F63" t="n">
-        <v>104366.3596</v>
+        <v>244</v>
       </c>
       <c r="G63" t="n">
-        <v>2.262733333333334</v>
+        <v>2.262033333333334</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>2.268</v>
+        <v>2.27</v>
       </c>
       <c r="C64" t="n">
-        <v>2.242</v>
+        <v>2.27</v>
       </c>
       <c r="D64" t="n">
-        <v>2.268</v>
+        <v>2.27</v>
       </c>
       <c r="E64" t="n">
-        <v>2.242</v>
+        <v>2.27</v>
       </c>
       <c r="F64" t="n">
-        <v>551358.9001</v>
+        <v>104366.3596</v>
       </c>
       <c r="G64" t="n">
-        <v>2.262616666666667</v>
+        <v>2.262733333333334</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2.242</v>
+        <v>2.268</v>
       </c>
       <c r="C65" t="n">
         <v>2.242</v>
       </c>
       <c r="D65" t="n">
-        <v>2.242</v>
+        <v>2.268</v>
       </c>
       <c r="E65" t="n">
         <v>2.242</v>
       </c>
       <c r="F65" t="n">
-        <v>225959.1732</v>
+        <v>551358.9001</v>
       </c>
       <c r="G65" t="n">
-        <v>2.2624</v>
+        <v>2.262616666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2685,10 +2685,10 @@
         <v>2.242</v>
       </c>
       <c r="F66" t="n">
-        <v>2681.9267</v>
+        <v>225959.1732</v>
       </c>
       <c r="G66" t="n">
-        <v>2.262216666666667</v>
+        <v>2.2624</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>2.259</v>
+        <v>2.242</v>
       </c>
       <c r="C67" t="n">
-        <v>2.259</v>
+        <v>2.242</v>
       </c>
       <c r="D67" t="n">
-        <v>2.259</v>
+        <v>2.242</v>
       </c>
       <c r="E67" t="n">
-        <v>2.259</v>
+        <v>2.242</v>
       </c>
       <c r="F67" t="n">
-        <v>2520</v>
+        <v>2681.9267</v>
       </c>
       <c r="G67" t="n">
-        <v>2.262316666666666</v>
+        <v>2.262216666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>2.238</v>
+        <v>2.259</v>
       </c>
       <c r="C68" t="n">
-        <v>2.237</v>
+        <v>2.259</v>
       </c>
       <c r="D68" t="n">
-        <v>2.238</v>
+        <v>2.259</v>
       </c>
       <c r="E68" t="n">
-        <v>2.237</v>
+        <v>2.259</v>
       </c>
       <c r="F68" t="n">
-        <v>48202.7269</v>
+        <v>2520</v>
       </c>
       <c r="G68" t="n">
-        <v>2.262049999999999</v>
+        <v>2.262316666666666</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2.24</v>
+        <v>2.238</v>
       </c>
       <c r="C69" t="n">
-        <v>2.24</v>
+        <v>2.237</v>
       </c>
       <c r="D69" t="n">
-        <v>2.24</v>
+        <v>2.238</v>
       </c>
       <c r="E69" t="n">
-        <v>2.24</v>
+        <v>2.237</v>
       </c>
       <c r="F69" t="n">
-        <v>14300.9132</v>
+        <v>48202.7269</v>
       </c>
       <c r="G69" t="n">
-        <v>2.262249999999999</v>
+        <v>2.262049999999999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2825,10 +2825,10 @@
         <v>2.24</v>
       </c>
       <c r="F70" t="n">
-        <v>37035.5314</v>
+        <v>14300.9132</v>
       </c>
       <c r="G70" t="n">
-        <v>2.262449999999999</v>
+        <v>2.262249999999999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2.254</v>
+        <v>2.24</v>
       </c>
       <c r="C71" t="n">
-        <v>2.254</v>
+        <v>2.24</v>
       </c>
       <c r="D71" t="n">
-        <v>2.254</v>
+        <v>2.24</v>
       </c>
       <c r="E71" t="n">
-        <v>2.254</v>
+        <v>2.24</v>
       </c>
       <c r="F71" t="n">
-        <v>18800</v>
+        <v>37035.5314</v>
       </c>
       <c r="G71" t="n">
-        <v>2.262866666666666</v>
+        <v>2.262449999999999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2.25</v>
+        <v>2.254</v>
       </c>
       <c r="C72" t="n">
-        <v>2.251</v>
+        <v>2.254</v>
       </c>
       <c r="D72" t="n">
-        <v>2.251</v>
+        <v>2.254</v>
       </c>
       <c r="E72" t="n">
-        <v>2.25</v>
+        <v>2.254</v>
       </c>
       <c r="F72" t="n">
-        <v>1120879.346</v>
+        <v>18800</v>
       </c>
       <c r="G72" t="n">
-        <v>2.263216666666666</v>
+        <v>2.262866666666666</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2.255</v>
+        <v>2.25</v>
       </c>
       <c r="C73" t="n">
-        <v>2.258</v>
+        <v>2.251</v>
       </c>
       <c r="D73" t="n">
-        <v>2.258</v>
+        <v>2.251</v>
       </c>
       <c r="E73" t="n">
-        <v>2.255</v>
+        <v>2.25</v>
       </c>
       <c r="F73" t="n">
-        <v>541225.7175</v>
+        <v>1120879.346</v>
       </c>
       <c r="G73" t="n">
-        <v>2.263666666666666</v>
+        <v>2.263216666666666</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2.274</v>
+        <v>2.255</v>
       </c>
       <c r="C74" t="n">
-        <v>2.274</v>
+        <v>2.258</v>
       </c>
       <c r="D74" t="n">
-        <v>2.274</v>
+        <v>2.258</v>
       </c>
       <c r="E74" t="n">
-        <v>2.274</v>
+        <v>2.255</v>
       </c>
       <c r="F74" t="n">
-        <v>240</v>
+        <v>541225.7175</v>
       </c>
       <c r="G74" t="n">
-        <v>2.264233333333332</v>
+        <v>2.263666666666666</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2991,19 +2991,19 @@
         <v>2.274</v>
       </c>
       <c r="C75" t="n">
-        <v>2.299</v>
+        <v>2.274</v>
       </c>
       <c r="D75" t="n">
-        <v>2.299</v>
+        <v>2.274</v>
       </c>
       <c r="E75" t="n">
         <v>2.274</v>
       </c>
       <c r="F75" t="n">
-        <v>7430324.3587</v>
+        <v>240</v>
       </c>
       <c r="G75" t="n">
-        <v>2.265066666666666</v>
+        <v>2.264233333333332</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
+        <v>2.274</v>
+      </c>
+      <c r="C76" t="n">
         <v>2.299</v>
       </c>
-      <c r="C76" t="n">
-        <v>2.3</v>
-      </c>
       <c r="D76" t="n">
-        <v>2.3</v>
+        <v>2.299</v>
       </c>
       <c r="E76" t="n">
-        <v>2.299</v>
+        <v>2.274</v>
       </c>
       <c r="F76" t="n">
-        <v>261879.3923</v>
+        <v>7430324.3587</v>
       </c>
       <c r="G76" t="n">
-        <v>2.265733333333333</v>
+        <v>2.265066666666666</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2.301</v>
+        <v>2.299</v>
       </c>
       <c r="C77" t="n">
-        <v>2.307</v>
+        <v>2.3</v>
       </c>
       <c r="D77" t="n">
-        <v>2.307</v>
+        <v>2.3</v>
       </c>
       <c r="E77" t="n">
-        <v>2.301</v>
+        <v>2.299</v>
       </c>
       <c r="F77" t="n">
-        <v>807281.21</v>
+        <v>261879.3923</v>
       </c>
       <c r="G77" t="n">
-        <v>2.266516666666667</v>
+        <v>2.265733333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
+        <v>2.301</v>
+      </c>
+      <c r="C78" t="n">
         <v>2.307</v>
       </c>
-      <c r="C78" t="n">
-        <v>2.3</v>
-      </c>
       <c r="D78" t="n">
-        <v>2.308</v>
+        <v>2.307</v>
       </c>
       <c r="E78" t="n">
-        <v>2.3</v>
+        <v>2.301</v>
       </c>
       <c r="F78" t="n">
-        <v>297299.0948</v>
+        <v>807281.21</v>
       </c>
       <c r="G78" t="n">
-        <v>2.267066666666667</v>
+        <v>2.266516666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3131,19 +3131,19 @@
         <v>2.307</v>
       </c>
       <c r="C79" t="n">
-        <v>2.31</v>
+        <v>2.3</v>
       </c>
       <c r="D79" t="n">
-        <v>2.31</v>
+        <v>2.308</v>
       </c>
       <c r="E79" t="n">
-        <v>2.307</v>
+        <v>2.3</v>
       </c>
       <c r="F79" t="n">
-        <v>501445.0497</v>
+        <v>297299.0948</v>
       </c>
       <c r="G79" t="n">
-        <v>2.267766666666667</v>
+        <v>2.267066666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2.309</v>
+        <v>2.307</v>
       </c>
       <c r="C80" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="D80" t="n">
-        <v>2.309</v>
+        <v>2.31</v>
       </c>
       <c r="E80" t="n">
-        <v>2.27</v>
+        <v>2.307</v>
       </c>
       <c r="F80" t="n">
-        <v>30598.5371</v>
+        <v>501445.0497</v>
       </c>
       <c r="G80" t="n">
-        <v>2.267783333333333</v>
+        <v>2.267766666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2.295</v>
+        <v>2.309</v>
       </c>
       <c r="C81" t="n">
-        <v>2.299</v>
+        <v>2.27</v>
       </c>
       <c r="D81" t="n">
-        <v>2.299</v>
+        <v>2.309</v>
       </c>
       <c r="E81" t="n">
-        <v>2.295</v>
+        <v>2.27</v>
       </c>
       <c r="F81" t="n">
-        <v>113779.0645</v>
+        <v>30598.5371</v>
       </c>
       <c r="G81" t="n">
-        <v>2.268766666666667</v>
+        <v>2.267783333333333</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2.269</v>
+        <v>2.295</v>
       </c>
       <c r="C82" t="n">
-        <v>2.269</v>
+        <v>2.299</v>
       </c>
       <c r="D82" t="n">
-        <v>2.269</v>
+        <v>2.299</v>
       </c>
       <c r="E82" t="n">
-        <v>2.269</v>
+        <v>2.295</v>
       </c>
       <c r="F82" t="n">
-        <v>94087.285</v>
+        <v>113779.0645</v>
       </c>
       <c r="G82" t="n">
-        <v>2.269383333333333</v>
+        <v>2.268766666666667</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>2.269</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0001</v>
+        <v>94087.285</v>
       </c>
       <c r="G83" t="n">
-        <v>2.2694</v>
+        <v>2.269383333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2.296</v>
+        <v>2.269</v>
       </c>
       <c r="C84" t="n">
-        <v>2.296</v>
+        <v>2.269</v>
       </c>
       <c r="D84" t="n">
-        <v>2.296</v>
+        <v>2.269</v>
       </c>
       <c r="E84" t="n">
-        <v>2.296</v>
+        <v>2.269</v>
       </c>
       <c r="F84" t="n">
-        <v>2264.6578</v>
+        <v>0.0001</v>
       </c>
       <c r="G84" t="n">
-        <v>2.270316666666667</v>
+        <v>2.2694</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,19 +3338,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>2.263</v>
+        <v>2.296</v>
       </c>
       <c r="C85" t="n">
-        <v>2.241</v>
+        <v>2.296</v>
       </c>
       <c r="D85" t="n">
-        <v>2.263</v>
+        <v>2.296</v>
       </c>
       <c r="E85" t="n">
-        <v>2.241</v>
+        <v>2.296</v>
       </c>
       <c r="F85" t="n">
-        <v>501445.0497</v>
+        <v>2264.6578</v>
       </c>
       <c r="G85" t="n">
         <v>2.270316666666667</v>
@@ -3373,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>2.279</v>
+        <v>2.263</v>
       </c>
       <c r="C86" t="n">
-        <v>2.279</v>
+        <v>2.241</v>
       </c>
       <c r="D86" t="n">
-        <v>2.279</v>
+        <v>2.263</v>
       </c>
       <c r="E86" t="n">
-        <v>2.279</v>
+        <v>2.241</v>
       </c>
       <c r="F86" t="n">
-        <v>84320.52899999999</v>
+        <v>501445.0497</v>
       </c>
       <c r="G86" t="n">
-        <v>2.27095</v>
+        <v>2.270316666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3420,10 +3420,10 @@
         <v>2.279</v>
       </c>
       <c r="F87" t="n">
-        <v>31356.0627</v>
+        <v>84320.52899999999</v>
       </c>
       <c r="G87" t="n">
-        <v>2.271583333333333</v>
+        <v>2.27095</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3455,10 +3455,10 @@
         <v>2.279</v>
       </c>
       <c r="F88" t="n">
-        <v>104930.8747</v>
+        <v>31356.0627</v>
       </c>
       <c r="G88" t="n">
-        <v>2.271766666666666</v>
+        <v>2.271583333333333</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3490,10 +3490,10 @@
         <v>2.279</v>
       </c>
       <c r="F89" t="n">
-        <v>95069.1253</v>
+        <v>104930.8747</v>
       </c>
       <c r="G89" t="n">
-        <v>2.271949999999999</v>
+        <v>2.271766666666666</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>2.252</v>
+        <v>2.279</v>
       </c>
       <c r="C90" t="n">
-        <v>2.252</v>
+        <v>2.279</v>
       </c>
       <c r="D90" t="n">
-        <v>2.252</v>
+        <v>2.279</v>
       </c>
       <c r="E90" t="n">
-        <v>2.252</v>
+        <v>2.279</v>
       </c>
       <c r="F90" t="n">
-        <v>6996.8527</v>
+        <v>95069.1253</v>
       </c>
       <c r="G90" t="n">
-        <v>2.271683333333333</v>
+        <v>2.271949999999999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3560,10 +3560,10 @@
         <v>2.252</v>
       </c>
       <c r="F91" t="n">
-        <v>390490.2897</v>
+        <v>6996.8527</v>
       </c>
       <c r="G91" t="n">
-        <v>2.271399999999999</v>
+        <v>2.271683333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2.25</v>
+        <v>2.252</v>
       </c>
       <c r="C92" t="n">
-        <v>2.244</v>
+        <v>2.252</v>
       </c>
       <c r="D92" t="n">
-        <v>2.25</v>
+        <v>2.252</v>
       </c>
       <c r="E92" t="n">
-        <v>2.244</v>
+        <v>2.252</v>
       </c>
       <c r="F92" t="n">
-        <v>192982.4043</v>
+        <v>390490.2897</v>
       </c>
       <c r="G92" t="n">
-        <v>2.270966666666666</v>
+        <v>2.271399999999999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2.245</v>
+        <v>2.25</v>
       </c>
       <c r="C93" t="n">
-        <v>2.245</v>
+        <v>2.244</v>
       </c>
       <c r="D93" t="n">
-        <v>2.245</v>
+        <v>2.25</v>
       </c>
       <c r="E93" t="n">
-        <v>2.245</v>
+        <v>2.244</v>
       </c>
       <c r="F93" t="n">
-        <v>67344.62760000001</v>
+        <v>192982.4043</v>
       </c>
       <c r="G93" t="n">
-        <v>2.270416666666666</v>
+        <v>2.270966666666666</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3665,10 +3665,10 @@
         <v>2.245</v>
       </c>
       <c r="F94" t="n">
-        <v>67344.6277</v>
+        <v>67344.62760000001</v>
       </c>
       <c r="G94" t="n">
-        <v>2.269699999999999</v>
+        <v>2.270416666666666</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>2.277</v>
+        <v>2.245</v>
       </c>
       <c r="C95" t="n">
-        <v>2.277</v>
+        <v>2.245</v>
       </c>
       <c r="D95" t="n">
-        <v>2.277</v>
+        <v>2.245</v>
       </c>
       <c r="E95" t="n">
-        <v>2.277</v>
+        <v>2.245</v>
       </c>
       <c r="F95" t="n">
-        <v>127121.0327</v>
+        <v>67344.6277</v>
       </c>
       <c r="G95" t="n">
-        <v>2.269416666666666</v>
+        <v>2.269699999999999</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3735,10 +3735,10 @@
         <v>2.277</v>
       </c>
       <c r="F96" t="n">
-        <v>114440.6305</v>
+        <v>127121.0327</v>
       </c>
       <c r="G96" t="n">
-        <v>2.269349999999998</v>
+        <v>2.269416666666666</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3770,10 +3770,10 @@
         <v>2.277</v>
       </c>
       <c r="F97" t="n">
-        <v>32670.119</v>
+        <v>114440.6305</v>
       </c>
       <c r="G97" t="n">
-        <v>2.269083333333332</v>
+        <v>2.269349999999998</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>2.277</v>
       </c>
       <c r="F98" t="n">
-        <v>386.412</v>
+        <v>32670.119</v>
       </c>
       <c r="G98" t="n">
-        <v>2.268699999999998</v>
+        <v>2.269083333333332</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>2.253</v>
+        <v>2.277</v>
       </c>
       <c r="C99" t="n">
-        <v>2.253</v>
+        <v>2.277</v>
       </c>
       <c r="D99" t="n">
-        <v>2.253</v>
+        <v>2.277</v>
       </c>
       <c r="E99" t="n">
-        <v>2.253</v>
+        <v>2.277</v>
       </c>
       <c r="F99" t="n">
-        <v>301409.0871</v>
+        <v>386.412</v>
       </c>
       <c r="G99" t="n">
-        <v>2.268066666666665</v>
+        <v>2.268699999999998</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>2.252</v>
+        <v>2.253</v>
       </c>
       <c r="C100" t="n">
-        <v>2.252</v>
+        <v>2.253</v>
       </c>
       <c r="D100" t="n">
-        <v>2.252</v>
+        <v>2.253</v>
       </c>
       <c r="E100" t="n">
-        <v>2.252</v>
+        <v>2.253</v>
       </c>
       <c r="F100" t="n">
-        <v>4984.2597</v>
+        <v>301409.0871</v>
       </c>
       <c r="G100" t="n">
-        <v>2.267583333333332</v>
+        <v>2.268066666666665</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3901,19 +3901,19 @@
         <v>2.252</v>
       </c>
       <c r="C101" t="n">
-        <v>2.251</v>
+        <v>2.252</v>
       </c>
       <c r="D101" t="n">
         <v>2.252</v>
       </c>
       <c r="E101" t="n">
-        <v>2.251</v>
+        <v>2.252</v>
       </c>
       <c r="F101" t="n">
-        <v>208436.2656</v>
+        <v>4984.2597</v>
       </c>
       <c r="G101" t="n">
-        <v>2.266933333333332</v>
+        <v>2.267583333333332</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2.254</v>
+        <v>2.252</v>
       </c>
       <c r="C102" t="n">
-        <v>2.254</v>
+        <v>2.251</v>
       </c>
       <c r="D102" t="n">
-        <v>2.254</v>
+        <v>2.252</v>
       </c>
       <c r="E102" t="n">
-        <v>2.254</v>
+        <v>2.251</v>
       </c>
       <c r="F102" t="n">
-        <v>1300000</v>
+        <v>208436.2656</v>
       </c>
       <c r="G102" t="n">
-        <v>2.266483333333332</v>
+        <v>2.266933333333332</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>2.277</v>
+        <v>2.254</v>
       </c>
       <c r="C103" t="n">
-        <v>2.29</v>
+        <v>2.254</v>
       </c>
       <c r="D103" t="n">
-        <v>2.29</v>
+        <v>2.254</v>
       </c>
       <c r="E103" t="n">
-        <v>2.277</v>
+        <v>2.254</v>
       </c>
       <c r="F103" t="n">
-        <v>1743223.311318253</v>
+        <v>1300000</v>
       </c>
       <c r="G103" t="n">
-        <v>2.266633333333331</v>
+        <v>2.266483333333332</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>2.27</v>
+        <v>2.277</v>
       </c>
       <c r="C104" t="n">
-        <v>2.265</v>
+        <v>2.29</v>
       </c>
       <c r="D104" t="n">
-        <v>2.27</v>
+        <v>2.29</v>
       </c>
       <c r="E104" t="n">
-        <v>2.265</v>
+        <v>2.277</v>
       </c>
       <c r="F104" t="n">
-        <v>94359.0316</v>
+        <v>1743223.311318253</v>
       </c>
       <c r="G104" t="n">
-        <v>2.266383333333331</v>
+        <v>2.266633333333331</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2.265</v>
+        <v>2.27</v>
       </c>
       <c r="C105" t="n">
         <v>2.265</v>
       </c>
       <c r="D105" t="n">
-        <v>2.265</v>
+        <v>2.27</v>
       </c>
       <c r="E105" t="n">
         <v>2.265</v>
       </c>
       <c r="F105" t="n">
-        <v>887.9759</v>
+        <v>94359.0316</v>
       </c>
       <c r="G105" t="n">
-        <v>2.266133333333331</v>
+        <v>2.266383333333331</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4085,10 +4085,10 @@
         <v>2.265</v>
       </c>
       <c r="F106" t="n">
-        <v>50456.9869</v>
+        <v>887.9759</v>
       </c>
       <c r="G106" t="n">
-        <v>2.265949999999997</v>
+        <v>2.266133333333331</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,22 +4108,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>2.26</v>
+        <v>2.265</v>
       </c>
       <c r="C107" t="n">
-        <v>2.255</v>
+        <v>2.265</v>
       </c>
       <c r="D107" t="n">
-        <v>2.26</v>
+        <v>2.265</v>
       </c>
       <c r="E107" t="n">
-        <v>2.255</v>
+        <v>2.265</v>
       </c>
       <c r="F107" t="n">
-        <v>74423.10159999999</v>
+        <v>50456.9869</v>
       </c>
       <c r="G107" t="n">
-        <v>2.265749999999997</v>
+        <v>2.265949999999997</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,22 +4143,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2.255</v>
+        <v>2.26</v>
       </c>
       <c r="C108" t="n">
         <v>2.255</v>
       </c>
       <c r="D108" t="n">
-        <v>2.255</v>
+        <v>2.26</v>
       </c>
       <c r="E108" t="n">
         <v>2.255</v>
       </c>
       <c r="F108" t="n">
-        <v>215777.262</v>
+        <v>74423.10159999999</v>
       </c>
       <c r="G108" t="n">
-        <v>2.265583333333331</v>
+        <v>2.265749999999997</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4181,19 +4181,19 @@
         <v>2.255</v>
       </c>
       <c r="C109" t="n">
-        <v>2.253</v>
+        <v>2.255</v>
       </c>
       <c r="D109" t="n">
         <v>2.255</v>
       </c>
       <c r="E109" t="n">
-        <v>2.253</v>
+        <v>2.255</v>
       </c>
       <c r="F109" t="n">
-        <v>76998.5132</v>
+        <v>215777.262</v>
       </c>
       <c r="G109" t="n">
-        <v>2.265349999999997</v>
+        <v>2.265583333333331</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>2.27</v>
+        <v>2.255</v>
       </c>
       <c r="C110" t="n">
-        <v>2.27</v>
+        <v>2.253</v>
       </c>
       <c r="D110" t="n">
-        <v>2.27</v>
+        <v>2.255</v>
       </c>
       <c r="E110" t="n">
-        <v>2.27</v>
+        <v>2.253</v>
       </c>
       <c r="F110" t="n">
-        <v>57668.6787</v>
+        <v>76998.5132</v>
       </c>
       <c r="G110" t="n">
-        <v>2.265299999999997</v>
+        <v>2.265349999999997</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4251,19 +4251,19 @@
         <v>2.27</v>
       </c>
       <c r="C111" t="n">
-        <v>2.255</v>
+        <v>2.27</v>
       </c>
       <c r="D111" t="n">
         <v>2.27</v>
       </c>
       <c r="E111" t="n">
-        <v>2.255</v>
+        <v>2.27</v>
       </c>
       <c r="F111" t="n">
-        <v>134403.9376</v>
+        <v>57668.6787</v>
       </c>
       <c r="G111" t="n">
-        <v>2.265183333333331</v>
+        <v>2.265299999999997</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2.254</v>
+        <v>2.27</v>
       </c>
       <c r="C112" t="n">
-        <v>2.254</v>
+        <v>2.255</v>
       </c>
       <c r="D112" t="n">
-        <v>2.254</v>
+        <v>2.27</v>
       </c>
       <c r="E112" t="n">
-        <v>2.254</v>
+        <v>2.255</v>
       </c>
       <c r="F112" t="n">
-        <v>144954.8838</v>
+        <v>134403.9376</v>
       </c>
       <c r="G112" t="n">
-        <v>2.264849999999997</v>
+        <v>2.265183333333331</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4318,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>2.27</v>
+        <v>2.254</v>
       </c>
       <c r="C113" t="n">
-        <v>2.27</v>
+        <v>2.254</v>
       </c>
       <c r="D113" t="n">
-        <v>2.27</v>
+        <v>2.254</v>
       </c>
       <c r="E113" t="n">
-        <v>2.27</v>
+        <v>2.254</v>
       </c>
       <c r="F113" t="n">
-        <v>29827.051</v>
+        <v>144954.8838</v>
       </c>
       <c r="G113" t="n">
-        <v>2.264799999999997</v>
+        <v>2.264849999999997</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>2.28</v>
+        <v>2.27</v>
       </c>
       <c r="C114" t="n">
-        <v>2.28</v>
+        <v>2.27</v>
       </c>
       <c r="D114" t="n">
-        <v>2.28</v>
+        <v>2.27</v>
       </c>
       <c r="E114" t="n">
-        <v>2.28</v>
+        <v>2.27</v>
       </c>
       <c r="F114" t="n">
-        <v>347903.4872</v>
+        <v>29827.051</v>
       </c>
       <c r="G114" t="n">
-        <v>2.265166666666664</v>
+        <v>2.264799999999997</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>2.29</v>
+        <v>2.28</v>
       </c>
       <c r="C115" t="n">
-        <v>2.29</v>
+        <v>2.28</v>
       </c>
       <c r="D115" t="n">
-        <v>2.29</v>
+        <v>2.28</v>
       </c>
       <c r="E115" t="n">
-        <v>2.29</v>
+        <v>2.28</v>
       </c>
       <c r="F115" t="n">
-        <v>122921.2648817467</v>
+        <v>347903.4872</v>
       </c>
       <c r="G115" t="n">
-        <v>2.26543333333333</v>
+        <v>2.265166666666664</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4435,10 +4435,10 @@
         <v>2.29</v>
       </c>
       <c r="F116" t="n">
-        <v>118549.5901</v>
+        <v>122921.2648817467</v>
       </c>
       <c r="G116" t="n">
-        <v>2.265699999999997</v>
+        <v>2.26543333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4458,22 +4458,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>2.281</v>
+        <v>2.29</v>
       </c>
       <c r="C117" t="n">
-        <v>2.281</v>
+        <v>2.29</v>
       </c>
       <c r="D117" t="n">
-        <v>2.281</v>
+        <v>2.29</v>
       </c>
       <c r="E117" t="n">
-        <v>2.281</v>
+        <v>2.29</v>
       </c>
       <c r="F117" t="n">
-        <v>61483.4928</v>
+        <v>118549.5901</v>
       </c>
       <c r="G117" t="n">
-        <v>2.266066666666664</v>
+        <v>2.265699999999997</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>2.28</v>
+        <v>2.281</v>
       </c>
       <c r="C118" t="n">
-        <v>2.271</v>
+        <v>2.281</v>
       </c>
       <c r="D118" t="n">
-        <v>2.288</v>
+        <v>2.281</v>
       </c>
       <c r="E118" t="n">
-        <v>2.271</v>
+        <v>2.281</v>
       </c>
       <c r="F118" t="n">
-        <v>579949.7669</v>
+        <v>61483.4928</v>
       </c>
       <c r="G118" t="n">
-        <v>2.26638333333333</v>
+        <v>2.266066666666664</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>2.265</v>
+        <v>2.28</v>
       </c>
       <c r="C119" t="n">
-        <v>2.27</v>
+        <v>2.271</v>
       </c>
       <c r="D119" t="n">
-        <v>2.27</v>
+        <v>2.288</v>
       </c>
       <c r="E119" t="n">
-        <v>2.265</v>
+        <v>2.271</v>
       </c>
       <c r="F119" t="n">
-        <v>234725.0925</v>
+        <v>579949.7669</v>
       </c>
       <c r="G119" t="n">
-        <v>2.266316666666663</v>
+        <v>2.26638333333333</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
+        <v>2.265</v>
+      </c>
+      <c r="C120" t="n">
         <v>2.27</v>
       </c>
-      <c r="C120" t="n">
-        <v>2.271</v>
-      </c>
       <c r="D120" t="n">
-        <v>2.271</v>
+        <v>2.27</v>
       </c>
       <c r="E120" t="n">
-        <v>2.27</v>
+        <v>2.265</v>
       </c>
       <c r="F120" t="n">
-        <v>500335.0601</v>
+        <v>234725.0925</v>
       </c>
       <c r="G120" t="n">
-        <v>2.26673333333333</v>
+        <v>2.266316666666663</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>2.288</v>
+        <v>2.27</v>
       </c>
       <c r="C121" t="n">
-        <v>2.288</v>
+        <v>2.271</v>
       </c>
       <c r="D121" t="n">
-        <v>2.288</v>
+        <v>2.271</v>
       </c>
       <c r="E121" t="n">
-        <v>2.288</v>
+        <v>2.27</v>
       </c>
       <c r="F121" t="n">
-        <v>2159.2308</v>
+        <v>500335.0601</v>
       </c>
       <c r="G121" t="n">
-        <v>2.267499999999997</v>
+        <v>2.26673333333333</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4636,19 +4636,19 @@
         <v>2.288</v>
       </c>
       <c r="C122" t="n">
-        <v>2.335</v>
+        <v>2.288</v>
       </c>
       <c r="D122" t="n">
-        <v>2.335</v>
+        <v>2.288</v>
       </c>
       <c r="E122" t="n">
         <v>2.288</v>
       </c>
       <c r="F122" t="n">
-        <v>5614452.3127</v>
+        <v>2159.2308</v>
       </c>
       <c r="G122" t="n">
-        <v>2.268566666666664</v>
+        <v>2.267499999999997</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>2.31</v>
+        <v>2.288</v>
       </c>
       <c r="C123" t="n">
-        <v>2.341</v>
+        <v>2.335</v>
       </c>
       <c r="D123" t="n">
-        <v>2.341</v>
+        <v>2.335</v>
       </c>
       <c r="E123" t="n">
-        <v>2.31</v>
+        <v>2.288</v>
       </c>
       <c r="F123" t="n">
-        <v>1218378.9507</v>
+        <v>5614452.3127</v>
       </c>
       <c r="G123" t="n">
-        <v>2.269749999999997</v>
+        <v>2.268566666666664</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>2.342</v>
+        <v>2.31</v>
       </c>
       <c r="C124" t="n">
-        <v>2.404</v>
+        <v>2.341</v>
       </c>
       <c r="D124" t="n">
-        <v>2.404</v>
+        <v>2.341</v>
       </c>
       <c r="E124" t="n">
-        <v>2.342</v>
+        <v>2.31</v>
       </c>
       <c r="F124" t="n">
-        <v>12888225.77342869</v>
+        <v>1218378.9507</v>
       </c>
       <c r="G124" t="n">
-        <v>2.272449999999997</v>
+        <v>2.269749999999997</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>2.406</v>
+        <v>2.342</v>
       </c>
       <c r="C125" t="n">
-        <v>2.425</v>
+        <v>2.404</v>
       </c>
       <c r="D125" t="n">
-        <v>2.425</v>
+        <v>2.404</v>
       </c>
       <c r="E125" t="n">
-        <v>2.406</v>
+        <v>2.342</v>
       </c>
       <c r="F125" t="n">
-        <v>2085772.7675</v>
+        <v>12888225.77342869</v>
       </c>
       <c r="G125" t="n">
-        <v>2.275499999999998</v>
+        <v>2.272449999999997</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +4773,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>2.427</v>
+        <v>2.406</v>
       </c>
       <c r="C126" t="n">
-        <v>2.48</v>
+        <v>2.425</v>
       </c>
       <c r="D126" t="n">
-        <v>2.48</v>
+        <v>2.425</v>
       </c>
       <c r="E126" t="n">
-        <v>2.427</v>
+        <v>2.406</v>
       </c>
       <c r="F126" t="n">
-        <v>4676620.0761</v>
+        <v>2085772.7675</v>
       </c>
       <c r="G126" t="n">
-        <v>2.279466666666664</v>
+        <v>2.275499999999998</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +4808,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>2.485</v>
+        <v>2.427</v>
       </c>
       <c r="C127" t="n">
-        <v>2.51</v>
+        <v>2.48</v>
       </c>
       <c r="D127" t="n">
-        <v>2.51</v>
+        <v>2.48</v>
       </c>
       <c r="E127" t="n">
-        <v>2.45</v>
+        <v>2.427</v>
       </c>
       <c r="F127" t="n">
-        <v>18112115.6713</v>
+        <v>4676620.0761</v>
       </c>
       <c r="G127" t="n">
-        <v>2.283649999999998</v>
+        <v>2.279466666666664</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
+        <v>2.485</v>
+      </c>
+      <c r="C128" t="n">
         <v>2.51</v>
       </c>
-      <c r="C128" t="n">
-        <v>2.513</v>
-      </c>
       <c r="D128" t="n">
-        <v>2.519</v>
+        <v>2.51</v>
       </c>
       <c r="E128" t="n">
         <v>2.45</v>
       </c>
       <c r="F128" t="n">
-        <v>7479560.8358</v>
+        <v>18112115.6713</v>
       </c>
       <c r="G128" t="n">
-        <v>2.288249999999998</v>
+        <v>2.283649999999998</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>2.518</v>
+        <v>2.51</v>
       </c>
       <c r="C129" t="n">
-        <v>2.524</v>
+        <v>2.513</v>
       </c>
       <c r="D129" t="n">
-        <v>2.525</v>
+        <v>2.519</v>
       </c>
       <c r="E129" t="n">
-        <v>2.511</v>
+        <v>2.45</v>
       </c>
       <c r="F129" t="n">
-        <v>5530001.541</v>
+        <v>7479560.8358</v>
       </c>
       <c r="G129" t="n">
-        <v>2.292983333333331</v>
+        <v>2.288249999999998</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
+        <v>2.518</v>
+      </c>
+      <c r="C130" t="n">
         <v>2.524</v>
       </c>
-      <c r="C130" t="n">
-        <v>2.482</v>
-      </c>
       <c r="D130" t="n">
-        <v>2.529</v>
+        <v>2.525</v>
       </c>
       <c r="E130" t="n">
-        <v>2.451</v>
+        <v>2.511</v>
       </c>
       <c r="F130" t="n">
-        <v>6452178.042472255</v>
+        <v>5530001.541</v>
       </c>
       <c r="G130" t="n">
-        <v>2.297016666666664</v>
+        <v>2.292983333333331</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>2.517</v>
+        <v>2.524</v>
       </c>
       <c r="C131" t="n">
-        <v>2.512</v>
+        <v>2.482</v>
       </c>
       <c r="D131" t="n">
-        <v>2.517</v>
+        <v>2.529</v>
       </c>
       <c r="E131" t="n">
-        <v>2.5</v>
+        <v>2.451</v>
       </c>
       <c r="F131" t="n">
-        <v>3923178.761</v>
+        <v>6452178.042472255</v>
       </c>
       <c r="G131" t="n">
-        <v>2.301316666666664</v>
+        <v>2.297016666666664</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4983,22 +4983,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>2.5</v>
+        <v>2.517</v>
       </c>
       <c r="C132" t="n">
+        <v>2.512</v>
+      </c>
+      <c r="D132" t="n">
         <v>2.517</v>
-      </c>
-      <c r="D132" t="n">
-        <v>2.518</v>
       </c>
       <c r="E132" t="n">
         <v>2.5</v>
       </c>
       <c r="F132" t="n">
-        <v>3730907.848</v>
+        <v>3923178.761</v>
       </c>
       <c r="G132" t="n">
-        <v>2.305749999999998</v>
+        <v>2.301316666666664</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5018,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2.517</v>
+      </c>
+      <c r="D133" t="n">
         <v>2.518</v>
       </c>
-      <c r="C133" t="n">
-        <v>2.276</v>
-      </c>
-      <c r="D133" t="n">
-        <v>2.527</v>
-      </c>
       <c r="E133" t="n">
-        <v>2.24</v>
+        <v>2.5</v>
       </c>
       <c r="F133" t="n">
-        <v>25002860.2005</v>
+        <v>3730907.848</v>
       </c>
       <c r="G133" t="n">
-        <v>2.306049999999998</v>
+        <v>2.305749999999998</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5053,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
+        <v>2.518</v>
+      </c>
+      <c r="C134" t="n">
         <v>2.276</v>
       </c>
-      <c r="C134" t="n">
-        <v>2.41</v>
-      </c>
       <c r="D134" t="n">
-        <v>2.521</v>
+        <v>2.527</v>
       </c>
       <c r="E134" t="n">
-        <v>2.276</v>
+        <v>2.24</v>
       </c>
       <c r="F134" t="n">
-        <v>27845737.0355</v>
+        <v>25002860.2005</v>
       </c>
       <c r="G134" t="n">
-        <v>2.308316666666664</v>
+        <v>2.306049999999998</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
+        <v>2.276</v>
+      </c>
+      <c r="C135" t="n">
         <v>2.41</v>
       </c>
-      <c r="C135" t="n">
-        <v>2.302</v>
-      </c>
       <c r="D135" t="n">
-        <v>2.41</v>
+        <v>2.521</v>
       </c>
       <c r="E135" t="n">
-        <v>2.302</v>
+        <v>2.276</v>
       </c>
       <c r="F135" t="n">
-        <v>5714162.6106</v>
+        <v>27845737.0355</v>
       </c>
       <c r="G135" t="n">
-        <v>2.308366666666664</v>
+        <v>2.308316666666664</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5123,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>2.301</v>
+        <v>2.41</v>
       </c>
       <c r="C136" t="n">
         <v>2.302</v>
       </c>
       <c r="D136" t="n">
-        <v>2.312</v>
+        <v>2.41</v>
       </c>
       <c r="E136" t="n">
-        <v>2.3</v>
+        <v>2.302</v>
       </c>
       <c r="F136" t="n">
-        <v>12802118.1645</v>
+        <v>5714162.6106</v>
       </c>
       <c r="G136" t="n">
-        <v>2.308399999999997</v>
+        <v>2.308366666666664</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,22 +5158,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
+        <v>2.301</v>
+      </c>
+      <c r="C137" t="n">
         <v>2.302</v>
       </c>
-      <c r="C137" t="n">
-        <v>2.348</v>
-      </c>
       <c r="D137" t="n">
-        <v>2.367</v>
+        <v>2.312</v>
       </c>
       <c r="E137" t="n">
-        <v>2.302</v>
+        <v>2.3</v>
       </c>
       <c r="F137" t="n">
-        <v>14754722.7604</v>
+        <v>12802118.1645</v>
       </c>
       <c r="G137" t="n">
-        <v>2.309083333333331</v>
+        <v>2.308399999999997</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,22 +5193,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>2.36</v>
+        <v>2.302</v>
       </c>
       <c r="C138" t="n">
-        <v>2.331</v>
+        <v>2.348</v>
       </c>
       <c r="D138" t="n">
-        <v>2.388</v>
+        <v>2.367</v>
       </c>
       <c r="E138" t="n">
-        <v>2.321</v>
+        <v>2.302</v>
       </c>
       <c r="F138" t="n">
-        <v>16371776.1384</v>
+        <v>14754722.7604</v>
       </c>
       <c r="G138" t="n">
-        <v>2.309599999999997</v>
+        <v>2.309083333333331</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5228,22 +5228,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="C139" t="n">
-        <v>2.301</v>
+        <v>2.331</v>
       </c>
       <c r="D139" t="n">
-        <v>2.32</v>
+        <v>2.388</v>
       </c>
       <c r="E139" t="n">
-        <v>2.278</v>
+        <v>2.321</v>
       </c>
       <c r="F139" t="n">
-        <v>4849008.6264</v>
+        <v>16371776.1384</v>
       </c>
       <c r="G139" t="n">
-        <v>2.309449999999997</v>
+        <v>2.309599999999997</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="C140" t="n">
         <v>2.301</v>
       </c>
-      <c r="C140" t="n">
-        <v>2.3</v>
-      </c>
       <c r="D140" t="n">
-        <v>2.301</v>
+        <v>2.32</v>
       </c>
       <c r="E140" t="n">
         <v>2.278</v>
       </c>
       <c r="F140" t="n">
-        <v>7545197.5273</v>
+        <v>4849008.6264</v>
       </c>
       <c r="G140" t="n">
-        <v>2.309949999999997</v>
+        <v>2.309449999999997</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5298,22 +5298,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>2.3</v>
+        <v>2.301</v>
       </c>
       <c r="C141" t="n">
         <v>2.3</v>
       </c>
       <c r="D141" t="n">
-        <v>2.3</v>
+        <v>2.301</v>
       </c>
       <c r="E141" t="n">
-        <v>2.3</v>
+        <v>2.278</v>
       </c>
       <c r="F141" t="n">
-        <v>14252259.9798</v>
+        <v>7545197.5273</v>
       </c>
       <c r="G141" t="n">
-        <v>2.309966666666663</v>
+        <v>2.309949999999997</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5336,19 +5336,19 @@
         <v>2.3</v>
       </c>
       <c r="C142" t="n">
-        <v>2.279</v>
+        <v>2.3</v>
       </c>
       <c r="D142" t="n">
         <v>2.3</v>
       </c>
       <c r="E142" t="n">
-        <v>2.276</v>
+        <v>2.3</v>
       </c>
       <c r="F142" t="n">
-        <v>4485198.8244</v>
+        <v>14252259.9798</v>
       </c>
       <c r="G142" t="n">
-        <v>2.31013333333333</v>
+        <v>2.309966666666663</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5368,22 +5368,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>2.274</v>
+        <v>2.3</v>
       </c>
       <c r="C143" t="n">
-        <v>2.274</v>
+        <v>2.279</v>
       </c>
       <c r="D143" t="n">
-        <v>2.325</v>
+        <v>2.3</v>
       </c>
       <c r="E143" t="n">
-        <v>2.244</v>
+        <v>2.276</v>
       </c>
       <c r="F143" t="n">
-        <v>5471129.9168</v>
+        <v>4485198.8244</v>
       </c>
       <c r="G143" t="n">
-        <v>2.310216666666663</v>
+        <v>2.31013333333333</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5403,22 +5403,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>2.32</v>
+        <v>2.274</v>
       </c>
       <c r="C144" t="n">
-        <v>2.243</v>
+        <v>2.274</v>
       </c>
       <c r="D144" t="n">
-        <v>2.32</v>
+        <v>2.325</v>
       </c>
       <c r="E144" t="n">
-        <v>2.238</v>
+        <v>2.244</v>
       </c>
       <c r="F144" t="n">
-        <v>11083447.5748</v>
+        <v>5471129.9168</v>
       </c>
       <c r="G144" t="n">
-        <v>2.30933333333333</v>
+        <v>2.310216666666663</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5438,22 +5438,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="C145" t="n">
         <v>2.243</v>
       </c>
-      <c r="C145" t="n">
-        <v>2.29</v>
-      </c>
       <c r="D145" t="n">
-        <v>2.29</v>
+        <v>2.32</v>
       </c>
       <c r="E145" t="n">
-        <v>2.23</v>
+        <v>2.238</v>
       </c>
       <c r="F145" t="n">
-        <v>10327748.3935</v>
+        <v>11083447.5748</v>
       </c>
       <c r="G145" t="n">
-        <v>2.310149999999996</v>
+        <v>2.30933333333333</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5473,22 +5473,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
+        <v>2.243</v>
+      </c>
+      <c r="C146" t="n">
         <v>2.29</v>
-      </c>
-      <c r="C146" t="n">
-        <v>2.283</v>
       </c>
       <c r="D146" t="n">
         <v>2.29</v>
       </c>
       <c r="E146" t="n">
-        <v>2.241</v>
+        <v>2.23</v>
       </c>
       <c r="F146" t="n">
-        <v>234666.6172</v>
+        <v>10327748.3935</v>
       </c>
       <c r="G146" t="n">
-        <v>2.310216666666663</v>
+        <v>2.310149999999996</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5508,22 +5508,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="C147" t="n">
         <v>2.283</v>
       </c>
-      <c r="C147" t="n">
-        <v>2.27</v>
-      </c>
       <c r="D147" t="n">
-        <v>2.283</v>
+        <v>2.29</v>
       </c>
       <c r="E147" t="n">
-        <v>2.27</v>
+        <v>2.241</v>
       </c>
       <c r="F147" t="n">
-        <v>4979.7391</v>
+        <v>234666.6172</v>
       </c>
       <c r="G147" t="n">
-        <v>2.310066666666663</v>
+        <v>2.310216666666663</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5543,22 +5543,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
+        <v>2.283</v>
+      </c>
+      <c r="C148" t="n">
         <v>2.27</v>
       </c>
-      <c r="C148" t="n">
-        <v>2.278</v>
-      </c>
       <c r="D148" t="n">
-        <v>2.278</v>
+        <v>2.283</v>
       </c>
       <c r="E148" t="n">
         <v>2.27</v>
       </c>
       <c r="F148" t="n">
-        <v>18008.05231817384</v>
+        <v>4979.7391</v>
       </c>
       <c r="G148" t="n">
-        <v>2.310049999999996</v>
+        <v>2.310066666666663</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5578,22 +5578,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="C149" t="n">
         <v>2.278</v>
-      </c>
-      <c r="C149" t="n">
-        <v>2.254</v>
       </c>
       <c r="D149" t="n">
         <v>2.278</v>
       </c>
       <c r="E149" t="n">
-        <v>2.254</v>
+        <v>2.27</v>
       </c>
       <c r="F149" t="n">
-        <v>1720029.076</v>
+        <v>18008.05231817384</v>
       </c>
       <c r="G149" t="n">
-        <v>2.30963333333333</v>
+        <v>2.310049999999996</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5613,22 +5613,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>2.277</v>
+        <v>2.278</v>
       </c>
       <c r="C150" t="n">
-        <v>2.26</v>
+        <v>2.254</v>
       </c>
       <c r="D150" t="n">
-        <v>2.277</v>
+        <v>2.278</v>
       </c>
       <c r="E150" t="n">
-        <v>2.26</v>
+        <v>2.254</v>
       </c>
       <c r="F150" t="n">
-        <v>572023.9399</v>
+        <v>1720029.076</v>
       </c>
       <c r="G150" t="n">
-        <v>2.309766666666663</v>
+        <v>2.30963333333333</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>2.256</v>
+        <v>2.277</v>
       </c>
       <c r="C151" t="n">
-        <v>2.25</v>
+        <v>2.26</v>
       </c>
       <c r="D151" t="n">
-        <v>2.256</v>
+        <v>2.277</v>
       </c>
       <c r="E151" t="n">
-        <v>2.25</v>
+        <v>2.26</v>
       </c>
       <c r="F151" t="n">
-        <v>732293.8281</v>
+        <v>572023.9399</v>
       </c>
       <c r="G151" t="n">
-        <v>2.309733333333329</v>
+        <v>2.309766666666663</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5683,22 +5683,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>2.26</v>
+        <v>2.256</v>
       </c>
       <c r="C152" t="n">
         <v>2.25</v>
       </c>
       <c r="D152" t="n">
-        <v>2.26</v>
+        <v>2.256</v>
       </c>
       <c r="E152" t="n">
         <v>2.25</v>
       </c>
       <c r="F152" t="n">
-        <v>464846.6845</v>
+        <v>732293.8281</v>
       </c>
       <c r="G152" t="n">
-        <v>2.309833333333329</v>
+        <v>2.309733333333329</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5718,32 +5718,38 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="C153" t="n">
         <v>2.25</v>
       </c>
-      <c r="C153" t="n">
-        <v>2.269</v>
-      </c>
       <c r="D153" t="n">
-        <v>2.269</v>
+        <v>2.26</v>
       </c>
       <c r="E153" t="n">
         <v>2.25</v>
       </c>
       <c r="F153" t="n">
-        <v>36492.8094</v>
+        <v>464846.6845</v>
       </c>
       <c r="G153" t="n">
-        <v>2.310233333333329</v>
+        <v>2.309833333333329</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>2.25</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5753,7 +5759,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>2.247</v>
+        <v>2.25</v>
       </c>
       <c r="C154" t="n">
         <v>2.269</v>
@@ -5762,23 +5768,29 @@
         <v>2.269</v>
       </c>
       <c r="E154" t="n">
-        <v>2.247</v>
+        <v>2.25</v>
       </c>
       <c r="F154" t="n">
-        <v>1594478.4907</v>
+        <v>36492.8094</v>
       </c>
       <c r="G154" t="n">
-        <v>2.310633333333329</v>
+        <v>2.310233333333329</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>2.25</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5788,32 +5800,38 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>2.248</v>
+        <v>2.247</v>
       </c>
       <c r="C155" t="n">
-        <v>2.247</v>
+        <v>2.269</v>
       </c>
       <c r="D155" t="n">
-        <v>2.248</v>
+        <v>2.269</v>
       </c>
       <c r="E155" t="n">
         <v>2.247</v>
       </c>
       <c r="F155" t="n">
-        <v>743173.5601</v>
+        <v>1594478.4907</v>
       </c>
       <c r="G155" t="n">
-        <v>2.31013333333333</v>
+        <v>2.310633333333329</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>2.269</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5835,20 +5853,26 @@
         <v>2.247</v>
       </c>
       <c r="F156" t="n">
-        <v>554578.5375</v>
+        <v>743173.5601</v>
       </c>
       <c r="G156" t="n">
-        <v>2.30963333333333</v>
+        <v>2.31013333333333</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>2.269</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5858,32 +5882,38 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>2.268</v>
+        <v>2.248</v>
       </c>
       <c r="C157" t="n">
-        <v>2.268</v>
+        <v>2.247</v>
       </c>
       <c r="D157" t="n">
-        <v>2.268</v>
+        <v>2.248</v>
       </c>
       <c r="E157" t="n">
-        <v>2.268</v>
+        <v>2.247</v>
       </c>
       <c r="F157" t="n">
-        <v>553.2179</v>
+        <v>554578.5375</v>
       </c>
       <c r="G157" t="n">
-        <v>2.30948333333333</v>
+        <v>2.30963333333333</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>2.247</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5893,22 +5923,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>2.248</v>
+        <v>2.268</v>
       </c>
       <c r="C158" t="n">
-        <v>2.269</v>
+        <v>2.268</v>
       </c>
       <c r="D158" t="n">
-        <v>2.269</v>
+        <v>2.268</v>
       </c>
       <c r="E158" t="n">
-        <v>2.247</v>
+        <v>2.268</v>
       </c>
       <c r="F158" t="n">
-        <v>943371.692</v>
+        <v>553.2179</v>
       </c>
       <c r="G158" t="n">
-        <v>2.309349999999997</v>
+        <v>2.30948333333333</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5918,7 +5948,11 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5928,7 +5962,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>2.269</v>
+        <v>2.248</v>
       </c>
       <c r="C159" t="n">
         <v>2.269</v>
@@ -5937,13 +5971,13 @@
         <v>2.269</v>
       </c>
       <c r="E159" t="n">
-        <v>2.269</v>
+        <v>2.247</v>
       </c>
       <c r="F159" t="n">
-        <v>66902.4595</v>
+        <v>943371.692</v>
       </c>
       <c r="G159" t="n">
-        <v>2.309616666666664</v>
+        <v>2.309349999999997</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5953,7 +5987,11 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -5966,19 +6004,19 @@
         <v>2.269</v>
       </c>
       <c r="C160" t="n">
-        <v>2.247</v>
+        <v>2.269</v>
       </c>
       <c r="D160" t="n">
         <v>2.269</v>
       </c>
       <c r="E160" t="n">
-        <v>2.247</v>
+        <v>2.269</v>
       </c>
       <c r="F160" t="n">
-        <v>280606.1094</v>
+        <v>66902.4595</v>
       </c>
       <c r="G160" t="n">
-        <v>2.30953333333333</v>
+        <v>2.309616666666664</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -5988,7 +6026,11 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6001,19 +6043,19 @@
         <v>2.269</v>
       </c>
       <c r="C161" t="n">
-        <v>2.28</v>
+        <v>2.247</v>
       </c>
       <c r="D161" t="n">
-        <v>2.28</v>
+        <v>2.269</v>
       </c>
       <c r="E161" t="n">
-        <v>2.269</v>
+        <v>2.247</v>
       </c>
       <c r="F161" t="n">
-        <v>187626.8472</v>
+        <v>280606.1094</v>
       </c>
       <c r="G161" t="n">
-        <v>2.310016666666664</v>
+        <v>2.30953333333333</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6023,7 +6065,11 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6033,36 +6079,34 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
+        <v>2.269</v>
+      </c>
+      <c r="C162" t="n">
         <v>2.28</v>
       </c>
-      <c r="C162" t="n">
-        <v>2.289</v>
-      </c>
       <c r="D162" t="n">
-        <v>2.289</v>
+        <v>2.28</v>
       </c>
       <c r="E162" t="n">
-        <v>2.28</v>
+        <v>2.269</v>
       </c>
       <c r="F162" t="n">
-        <v>48839.0634</v>
+        <v>187626.8472</v>
       </c>
       <c r="G162" t="n">
-        <v>2.310599999999997</v>
+        <v>2.310016666666664</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>2.28</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M162" t="n">
@@ -6074,32 +6118,30 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="C163" t="n">
-        <v>2.26</v>
+        <v>2.289</v>
       </c>
       <c r="D163" t="n">
-        <v>2.26</v>
+        <v>2.289</v>
       </c>
       <c r="E163" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="F163" t="n">
-        <v>188938.9925</v>
+        <v>48839.0634</v>
       </c>
       <c r="G163" t="n">
-        <v>2.310099999999997</v>
+        <v>2.310599999999997</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>2.289</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
@@ -6115,32 +6157,30 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>2.277</v>
+        <v>2.26</v>
       </c>
       <c r="C164" t="n">
-        <v>2.277</v>
+        <v>2.26</v>
       </c>
       <c r="D164" t="n">
-        <v>2.277</v>
+        <v>2.26</v>
       </c>
       <c r="E164" t="n">
-        <v>2.277</v>
+        <v>2.26</v>
       </c>
       <c r="F164" t="n">
-        <v>276.1191</v>
+        <v>188938.9925</v>
       </c>
       <c r="G164" t="n">
-        <v>2.310299999999997</v>
+        <v>2.310099999999997</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>2.26</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
@@ -6168,20 +6208,18 @@
         <v>2.277</v>
       </c>
       <c r="F165" t="n">
-        <v>186714.115</v>
+        <v>276.1191</v>
       </c>
       <c r="G165" t="n">
-        <v>2.310499999999997</v>
+        <v>2.310299999999997</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>2.277</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
@@ -6197,32 +6235,30 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>2.26</v>
+        <v>2.277</v>
       </c>
       <c r="C166" t="n">
-        <v>2.26</v>
+        <v>2.277</v>
       </c>
       <c r="D166" t="n">
-        <v>2.26</v>
+        <v>2.277</v>
       </c>
       <c r="E166" t="n">
-        <v>2.26</v>
+        <v>2.277</v>
       </c>
       <c r="F166" t="n">
-        <v>18312.033</v>
+        <v>186714.115</v>
       </c>
       <c r="G166" t="n">
-        <v>2.310416666666664</v>
+        <v>2.310499999999997</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>2.277</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
@@ -6238,32 +6274,30 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>2.276</v>
+        <v>2.26</v>
       </c>
       <c r="C167" t="n">
-        <v>2.276</v>
+        <v>2.26</v>
       </c>
       <c r="D167" t="n">
-        <v>2.276</v>
+        <v>2.26</v>
       </c>
       <c r="E167" t="n">
-        <v>2.276</v>
+        <v>2.26</v>
       </c>
       <c r="F167" t="n">
-        <v>277.2856</v>
+        <v>18312.033</v>
       </c>
       <c r="G167" t="n">
-        <v>2.310766666666664</v>
+        <v>2.310416666666664</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>2.26</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
@@ -6291,20 +6325,18 @@
         <v>2.276</v>
       </c>
       <c r="F168" t="n">
-        <v>229.5316</v>
+        <v>277.2856</v>
       </c>
       <c r="G168" t="n">
-        <v>2.311116666666664</v>
+        <v>2.310766666666664</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>2.276</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
@@ -6332,20 +6364,18 @@
         <v>2.276</v>
       </c>
       <c r="F169" t="n">
-        <v>17969.1412</v>
+        <v>229.5316</v>
       </c>
       <c r="G169" t="n">
-        <v>2.311499999999998</v>
+        <v>2.311116666666664</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>2.276</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
@@ -6361,22 +6391,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>2.26</v>
+        <v>2.276</v>
       </c>
       <c r="C170" t="n">
-        <v>2.26</v>
+        <v>2.276</v>
       </c>
       <c r="D170" t="n">
-        <v>2.26</v>
+        <v>2.276</v>
       </c>
       <c r="E170" t="n">
-        <v>2.26</v>
+        <v>2.276</v>
       </c>
       <c r="F170" t="n">
-        <v>222222</v>
+        <v>17969.1412</v>
       </c>
       <c r="G170" t="n">
-        <v>2.311333333333331</v>
+        <v>2.311499999999998</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6400,22 +6430,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>2.261</v>
+        <v>2.26</v>
       </c>
       <c r="C171" t="n">
-        <v>2.261</v>
+        <v>2.26</v>
       </c>
       <c r="D171" t="n">
-        <v>2.261</v>
+        <v>2.26</v>
       </c>
       <c r="E171" t="n">
-        <v>2.261</v>
+        <v>2.26</v>
       </c>
       <c r="F171" t="n">
-        <v>15121.6539</v>
+        <v>222222</v>
       </c>
       <c r="G171" t="n">
-        <v>2.311433333333331</v>
+        <v>2.311333333333331</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6439,22 +6469,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>2.262</v>
+        <v>2.261</v>
       </c>
       <c r="C172" t="n">
-        <v>2.28</v>
+        <v>2.261</v>
       </c>
       <c r="D172" t="n">
-        <v>2.28</v>
+        <v>2.261</v>
       </c>
       <c r="E172" t="n">
-        <v>2.262</v>
+        <v>2.261</v>
       </c>
       <c r="F172" t="n">
-        <v>81822.8971</v>
+        <v>15121.6539</v>
       </c>
       <c r="G172" t="n">
-        <v>2.311866666666665</v>
+        <v>2.311433333333331</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6478,7 +6508,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>2.276</v>
+        <v>2.262</v>
       </c>
       <c r="C173" t="n">
         <v>2.28</v>
@@ -6487,13 +6517,13 @@
         <v>2.28</v>
       </c>
       <c r="E173" t="n">
-        <v>2.27</v>
+        <v>2.262</v>
       </c>
       <c r="F173" t="n">
-        <v>451669.6326</v>
+        <v>81822.8971</v>
       </c>
       <c r="G173" t="n">
-        <v>2.312033333333331</v>
+        <v>2.311866666666665</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6517,7 +6547,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>2.28</v>
+        <v>2.276</v>
       </c>
       <c r="C174" t="n">
         <v>2.28</v>
@@ -6526,10 +6556,10 @@
         <v>2.28</v>
       </c>
       <c r="E174" t="n">
-        <v>2.28</v>
+        <v>2.27</v>
       </c>
       <c r="F174" t="n">
-        <v>6906.0318</v>
+        <v>451669.6326</v>
       </c>
       <c r="G174" t="n">
         <v>2.312033333333331</v>
@@ -6559,19 +6589,19 @@
         <v>2.28</v>
       </c>
       <c r="C175" t="n">
-        <v>2.289</v>
+        <v>2.28</v>
       </c>
       <c r="D175" t="n">
-        <v>2.289</v>
+        <v>2.28</v>
       </c>
       <c r="E175" t="n">
         <v>2.28</v>
       </c>
       <c r="F175" t="n">
-        <v>329997.701</v>
+        <v>6906.0318</v>
       </c>
       <c r="G175" t="n">
-        <v>2.312016666666664</v>
+        <v>2.312033333333331</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6595,19 +6625,19 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>2.29</v>
+        <v>2.28</v>
       </c>
       <c r="C176" t="n">
-        <v>2.29</v>
+        <v>2.289</v>
       </c>
       <c r="D176" t="n">
-        <v>2.29</v>
+        <v>2.289</v>
       </c>
       <c r="E176" t="n">
-        <v>2.29</v>
+        <v>2.28</v>
       </c>
       <c r="F176" t="n">
-        <v>56258.0681</v>
+        <v>329997.701</v>
       </c>
       <c r="G176" t="n">
         <v>2.312016666666664</v>
@@ -6634,22 +6664,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>2.289</v>
+        <v>2.29</v>
       </c>
       <c r="C177" t="n">
-        <v>2.289</v>
+        <v>2.29</v>
       </c>
       <c r="D177" t="n">
         <v>2.29</v>
       </c>
       <c r="E177" t="n">
-        <v>2.289</v>
+        <v>2.29</v>
       </c>
       <c r="F177" t="n">
-        <v>482571.0984</v>
+        <v>56258.0681</v>
       </c>
       <c r="G177" t="n">
-        <v>2.312149999999997</v>
+        <v>2.312016666666664</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6679,16 +6709,16 @@
         <v>2.289</v>
       </c>
       <c r="D178" t="n">
-        <v>2.289</v>
+        <v>2.29</v>
       </c>
       <c r="E178" t="n">
         <v>2.289</v>
       </c>
       <c r="F178" t="n">
-        <v>554.372</v>
+        <v>482571.0984</v>
       </c>
       <c r="G178" t="n">
-        <v>2.312449999999997</v>
+        <v>2.312149999999997</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6724,10 +6754,10 @@
         <v>2.289</v>
       </c>
       <c r="F179" t="n">
-        <v>16.488</v>
+        <v>554.372</v>
       </c>
       <c r="G179" t="n">
-        <v>2.312766666666664</v>
+        <v>2.312449999999997</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6763,10 +6793,10 @@
         <v>2.289</v>
       </c>
       <c r="F180" t="n">
-        <v>294586.0144</v>
+        <v>16.488</v>
       </c>
       <c r="G180" t="n">
-        <v>2.313066666666664</v>
+        <v>2.312766666666664</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6802,10 +6832,10 @@
         <v>2.289</v>
       </c>
       <c r="F181" t="n">
-        <v>185565.5788</v>
+        <v>294586.0144</v>
       </c>
       <c r="G181" t="n">
-        <v>2.31308333333333</v>
+        <v>2.313066666666664</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6841,10 +6871,10 @@
         <v>2.289</v>
       </c>
       <c r="F182" t="n">
-        <v>8854.8508</v>
+        <v>185565.5788</v>
       </c>
       <c r="G182" t="n">
-        <v>2.312316666666663</v>
+        <v>2.31308333333333</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6868,22 +6898,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>2.29</v>
+        <v>2.289</v>
       </c>
       <c r="C183" t="n">
-        <v>2.295</v>
+        <v>2.289</v>
       </c>
       <c r="D183" t="n">
-        <v>2.295</v>
+        <v>2.289</v>
       </c>
       <c r="E183" t="n">
         <v>2.289</v>
       </c>
       <c r="F183" t="n">
-        <v>1188682.229</v>
+        <v>8854.8508</v>
       </c>
       <c r="G183" t="n">
-        <v>2.311549999999996</v>
+        <v>2.312316666666663</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6907,7 +6937,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>2.294</v>
+        <v>2.29</v>
       </c>
       <c r="C184" t="n">
         <v>2.295</v>
@@ -6916,13 +6946,13 @@
         <v>2.295</v>
       </c>
       <c r="E184" t="n">
-        <v>2.294</v>
+        <v>2.289</v>
       </c>
       <c r="F184" t="n">
-        <v>1139894.5294</v>
+        <v>1188682.229</v>
       </c>
       <c r="G184" t="n">
-        <v>2.309733333333329</v>
+        <v>2.311549999999996</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6946,22 +6976,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
+        <v>2.294</v>
+      </c>
+      <c r="C185" t="n">
         <v>2.295</v>
-      </c>
-      <c r="C185" t="n">
-        <v>2.282</v>
       </c>
       <c r="D185" t="n">
         <v>2.295</v>
       </c>
       <c r="E185" t="n">
-        <v>2.282</v>
+        <v>2.294</v>
       </c>
       <c r="F185" t="n">
-        <v>2984.444</v>
+        <v>1139894.5294</v>
       </c>
       <c r="G185" t="n">
-        <v>2.307349999999996</v>
+        <v>2.309733333333329</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6985,22 +7015,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>2.282</v>
+        <v>2.295</v>
       </c>
       <c r="C186" t="n">
         <v>2.282</v>
       </c>
       <c r="D186" t="n">
-        <v>2.282</v>
+        <v>2.295</v>
       </c>
       <c r="E186" t="n">
         <v>2.282</v>
       </c>
       <c r="F186" t="n">
-        <v>11836.966</v>
+        <v>2984.444</v>
       </c>
       <c r="G186" t="n">
-        <v>2.304049999999996</v>
+        <v>2.307349999999996</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7024,22 +7054,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>2.281</v>
+        <v>2.282</v>
       </c>
       <c r="C187" t="n">
-        <v>2.28</v>
+        <v>2.282</v>
       </c>
       <c r="D187" t="n">
-        <v>2.281</v>
+        <v>2.282</v>
       </c>
       <c r="E187" t="n">
-        <v>2.28</v>
+        <v>2.282</v>
       </c>
       <c r="F187" t="n">
-        <v>662001.001</v>
+        <v>11836.966</v>
       </c>
       <c r="G187" t="n">
-        <v>2.300216666666663</v>
+        <v>2.304049999999996</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7063,22 +7093,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>2.27</v>
+        <v>2.281</v>
       </c>
       <c r="C188" t="n">
-        <v>2.256</v>
+        <v>2.28</v>
       </c>
       <c r="D188" t="n">
-        <v>2.27</v>
+        <v>2.281</v>
       </c>
       <c r="E188" t="n">
-        <v>2.256</v>
+        <v>2.28</v>
       </c>
       <c r="F188" t="n">
-        <v>3941487.9734</v>
+        <v>662001.001</v>
       </c>
       <c r="G188" t="n">
-        <v>2.29593333333333</v>
+        <v>2.300216666666663</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7102,22 +7132,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="C189" t="n">
         <v>2.256</v>
       </c>
-      <c r="C189" t="n">
-        <v>2.25</v>
-      </c>
       <c r="D189" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="E189" t="n">
         <v>2.256</v>
       </c>
-      <c r="E189" t="n">
-        <v>2.25</v>
-      </c>
       <c r="F189" t="n">
-        <v>2492312.3351</v>
+        <v>3941487.9734</v>
       </c>
       <c r="G189" t="n">
-        <v>2.291366666666663</v>
+        <v>2.29593333333333</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7144,19 +7174,19 @@
         <v>2.256</v>
       </c>
       <c r="C190" t="n">
-        <v>2.256</v>
+        <v>2.25</v>
       </c>
       <c r="D190" t="n">
         <v>2.256</v>
       </c>
       <c r="E190" t="n">
-        <v>2.256</v>
+        <v>2.25</v>
       </c>
       <c r="F190" t="n">
-        <v>222</v>
+        <v>2492312.3351</v>
       </c>
       <c r="G190" t="n">
-        <v>2.287599999999996</v>
+        <v>2.291366666666663</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7192,10 +7222,10 @@
         <v>2.256</v>
       </c>
       <c r="F191" t="n">
-        <v>702504.9465</v>
+        <v>222</v>
       </c>
       <c r="G191" t="n">
-        <v>2.28333333333333</v>
+        <v>2.287599999999996</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7219,22 +7249,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>2.26</v>
+        <v>2.256</v>
       </c>
       <c r="C192" t="n">
-        <v>2.27</v>
+        <v>2.256</v>
       </c>
       <c r="D192" t="n">
-        <v>2.29</v>
+        <v>2.256</v>
       </c>
       <c r="E192" t="n">
-        <v>2.26</v>
+        <v>2.256</v>
       </c>
       <c r="F192" t="n">
-        <v>41377.5947</v>
+        <v>702504.9465</v>
       </c>
       <c r="G192" t="n">
-        <v>2.279216666666663</v>
+        <v>2.28333333333333</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7258,22 +7288,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>2.25</v>
+        <v>2.26</v>
       </c>
       <c r="C193" t="n">
-        <v>2.251</v>
+        <v>2.27</v>
       </c>
       <c r="D193" t="n">
-        <v>2.251</v>
+        <v>2.29</v>
       </c>
       <c r="E193" t="n">
-        <v>2.25</v>
+        <v>2.26</v>
       </c>
       <c r="F193" t="n">
-        <v>286226.7626</v>
+        <v>41377.5947</v>
       </c>
       <c r="G193" t="n">
-        <v>2.278799999999996</v>
+        <v>2.279216666666663</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7297,22 +7327,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="C194" t="n">
-        <v>2.27</v>
+        <v>2.251</v>
       </c>
       <c r="D194" t="n">
-        <v>2.27</v>
+        <v>2.251</v>
       </c>
       <c r="E194" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="F194" t="n">
-        <v>25558.1625</v>
+        <v>286226.7626</v>
       </c>
       <c r="G194" t="n">
-        <v>2.276466666666663</v>
+        <v>2.278799999999996</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7339,19 +7369,19 @@
         <v>2.27</v>
       </c>
       <c r="C195" t="n">
-        <v>2.28</v>
+        <v>2.27</v>
       </c>
       <c r="D195" t="n">
-        <v>2.28</v>
+        <v>2.27</v>
       </c>
       <c r="E195" t="n">
         <v>2.27</v>
       </c>
       <c r="F195" t="n">
-        <v>72658.32799999999</v>
+        <v>25558.1625</v>
       </c>
       <c r="G195" t="n">
-        <v>2.276099999999997</v>
+        <v>2.276466666666663</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7378,19 +7408,19 @@
         <v>2.27</v>
       </c>
       <c r="C196" t="n">
-        <v>2.251</v>
+        <v>2.28</v>
       </c>
       <c r="D196" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="E196" t="n">
         <v>2.27</v>
       </c>
-      <c r="E196" t="n">
-        <v>2.251</v>
-      </c>
       <c r="F196" t="n">
-        <v>43873.6823</v>
+        <v>72658.32799999999</v>
       </c>
       <c r="G196" t="n">
-        <v>2.275249999999997</v>
+        <v>2.276099999999997</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7414,22 +7444,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>2.252</v>
+        <v>2.27</v>
       </c>
       <c r="C197" t="n">
         <v>2.251</v>
       </c>
       <c r="D197" t="n">
-        <v>2.252</v>
+        <v>2.27</v>
       </c>
       <c r="E197" t="n">
         <v>2.251</v>
       </c>
       <c r="F197" t="n">
-        <v>778219.8182</v>
+        <v>43873.6823</v>
       </c>
       <c r="G197" t="n">
-        <v>2.27363333333333</v>
+        <v>2.275249999999997</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7453,22 +7483,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>2.26</v>
+        <v>2.252</v>
       </c>
       <c r="C198" t="n">
-        <v>2.265</v>
+        <v>2.251</v>
       </c>
       <c r="D198" t="n">
-        <v>2.265</v>
+        <v>2.252</v>
       </c>
       <c r="E198" t="n">
-        <v>2.26</v>
+        <v>2.251</v>
       </c>
       <c r="F198" t="n">
-        <v>9297.6381</v>
+        <v>778219.8182</v>
       </c>
       <c r="G198" t="n">
-        <v>2.27253333333333</v>
+        <v>2.27363333333333</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7492,22 +7522,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="C199" t="n">
         <v>2.265</v>
-      </c>
-      <c r="C199" t="n">
-        <v>2.252</v>
       </c>
       <c r="D199" t="n">
         <v>2.265</v>
       </c>
       <c r="E199" t="n">
-        <v>2.252</v>
+        <v>2.26</v>
       </c>
       <c r="F199" t="n">
-        <v>209304.3815</v>
+        <v>9297.6381</v>
       </c>
       <c r="G199" t="n">
-        <v>2.271716666666664</v>
+        <v>2.27253333333333</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7531,22 +7561,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>2.257</v>
+        <v>2.265</v>
       </c>
       <c r="C200" t="n">
-        <v>2.257</v>
+        <v>2.252</v>
       </c>
       <c r="D200" t="n">
-        <v>2.257</v>
+        <v>2.265</v>
       </c>
       <c r="E200" t="n">
-        <v>2.257</v>
+        <v>2.252</v>
       </c>
       <c r="F200" t="n">
-        <v>27003.8594</v>
+        <v>209304.3815</v>
       </c>
       <c r="G200" t="n">
-        <v>2.270999999999997</v>
+        <v>2.271716666666664</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7579,13 +7609,13 @@
         <v>2.257</v>
       </c>
       <c r="E201" t="n">
-        <v>2.253</v>
+        <v>2.257</v>
       </c>
       <c r="F201" t="n">
-        <v>877909.7766</v>
+        <v>27003.8594</v>
       </c>
       <c r="G201" t="n">
-        <v>2.27028333333333</v>
+        <v>2.270999999999997</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7618,13 +7648,13 @@
         <v>2.257</v>
       </c>
       <c r="E202" t="n">
-        <v>2.257</v>
+        <v>2.253</v>
       </c>
       <c r="F202" t="n">
-        <v>10000</v>
+        <v>877909.7766</v>
       </c>
       <c r="G202" t="n">
-        <v>2.269916666666664</v>
+        <v>2.27028333333333</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7660,10 +7690,10 @@
         <v>2.257</v>
       </c>
       <c r="F203" t="n">
-        <v>43484.2994</v>
+        <v>10000</v>
       </c>
       <c r="G203" t="n">
-        <v>2.269633333333331</v>
+        <v>2.269916666666664</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7699,10 +7729,10 @@
         <v>2.257</v>
       </c>
       <c r="F204" t="n">
-        <v>60000</v>
+        <v>43484.2994</v>
       </c>
       <c r="G204" t="n">
-        <v>2.269866666666664</v>
+        <v>2.269633333333331</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7726,22 +7756,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>2.272</v>
+        <v>2.257</v>
       </c>
       <c r="C205" t="n">
-        <v>2.272</v>
+        <v>2.257</v>
       </c>
       <c r="D205" t="n">
-        <v>2.272</v>
+        <v>2.257</v>
       </c>
       <c r="E205" t="n">
-        <v>2.272</v>
+        <v>2.257</v>
       </c>
       <c r="F205" t="n">
-        <v>222</v>
+        <v>60000</v>
       </c>
       <c r="G205" t="n">
-        <v>2.269566666666664</v>
+        <v>2.269866666666664</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7765,22 +7795,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>2.258</v>
+        <v>2.272</v>
       </c>
       <c r="C206" t="n">
-        <v>2.258</v>
+        <v>2.272</v>
       </c>
       <c r="D206" t="n">
-        <v>2.258</v>
+        <v>2.272</v>
       </c>
       <c r="E206" t="n">
-        <v>2.258</v>
+        <v>2.272</v>
       </c>
       <c r="F206" t="n">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="G206" t="n">
-        <v>2.269149999999998</v>
+        <v>2.269566666666664</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7804,22 +7834,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>2.259</v>
+        <v>2.258</v>
       </c>
       <c r="C207" t="n">
-        <v>2.259</v>
+        <v>2.258</v>
       </c>
       <c r="D207" t="n">
-        <v>2.259</v>
+        <v>2.258</v>
       </c>
       <c r="E207" t="n">
-        <v>2.259</v>
+        <v>2.258</v>
       </c>
       <c r="F207" t="n">
         <v>240</v>
       </c>
       <c r="G207" t="n">
-        <v>2.268966666666664</v>
+        <v>2.269149999999998</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7843,22 +7873,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>2.265</v>
+        <v>2.259</v>
       </c>
       <c r="C208" t="n">
-        <v>2.265</v>
+        <v>2.259</v>
       </c>
       <c r="D208" t="n">
-        <v>2.265</v>
+        <v>2.259</v>
       </c>
       <c r="E208" t="n">
-        <v>2.265</v>
+        <v>2.259</v>
       </c>
       <c r="F208" t="n">
-        <v>1193.2372</v>
+        <v>240</v>
       </c>
       <c r="G208" t="n">
-        <v>2.268749999999997</v>
+        <v>2.268966666666664</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7882,22 +7912,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>2.259</v>
+        <v>2.265</v>
       </c>
       <c r="C209" t="n">
-        <v>2.258</v>
+        <v>2.265</v>
       </c>
       <c r="D209" t="n">
-        <v>2.259</v>
+        <v>2.265</v>
       </c>
       <c r="E209" t="n">
-        <v>2.258</v>
+        <v>2.265</v>
       </c>
       <c r="F209" t="n">
-        <v>394731.7473</v>
+        <v>1193.2372</v>
       </c>
       <c r="G209" t="n">
-        <v>2.268816666666664</v>
+        <v>2.268749999999997</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7921,22 +7951,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>2.265</v>
+        <v>2.259</v>
       </c>
       <c r="C210" t="n">
-        <v>2.267</v>
+        <v>2.258</v>
       </c>
       <c r="D210" t="n">
-        <v>2.267</v>
+        <v>2.259</v>
       </c>
       <c r="E210" t="n">
-        <v>2.265</v>
+        <v>2.258</v>
       </c>
       <c r="F210" t="n">
-        <v>873.1098</v>
+        <v>394731.7473</v>
       </c>
       <c r="G210" t="n">
-        <v>2.268933333333331</v>
+        <v>2.268816666666664</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7960,22 +7990,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
+        <v>2.265</v>
+      </c>
+      <c r="C211" t="n">
         <v>2.267</v>
       </c>
-      <c r="C211" t="n">
-        <v>2.272</v>
-      </c>
       <c r="D211" t="n">
-        <v>2.272</v>
+        <v>2.267</v>
       </c>
       <c r="E211" t="n">
-        <v>2.267</v>
+        <v>2.265</v>
       </c>
       <c r="F211" t="n">
-        <v>760</v>
+        <v>873.1098</v>
       </c>
       <c r="G211" t="n">
-        <v>2.269299999999997</v>
+        <v>2.268933333333331</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7999,22 +8029,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
+        <v>2.267</v>
+      </c>
+      <c r="C212" t="n">
         <v>2.272</v>
       </c>
-      <c r="C212" t="n">
-        <v>2.278</v>
-      </c>
       <c r="D212" t="n">
-        <v>2.278</v>
+        <v>2.272</v>
       </c>
       <c r="E212" t="n">
-        <v>2.272</v>
+        <v>2.267</v>
       </c>
       <c r="F212" t="n">
-        <v>2236</v>
+        <v>760</v>
       </c>
       <c r="G212" t="n">
-        <v>2.269766666666664</v>
+        <v>2.269299999999997</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8038,22 +8068,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>2.259</v>
+        <v>2.272</v>
       </c>
       <c r="C213" t="n">
-        <v>2.258</v>
+        <v>2.278</v>
       </c>
       <c r="D213" t="n">
-        <v>2.259</v>
+        <v>2.278</v>
       </c>
       <c r="E213" t="n">
-        <v>2.258</v>
+        <v>2.272</v>
       </c>
       <c r="F213" t="n">
-        <v>131015.3687</v>
+        <v>2236</v>
       </c>
       <c r="G213" t="n">
-        <v>2.269583333333331</v>
+        <v>2.269766666666664</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8077,22 +8107,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
+        <v>2.259</v>
+      </c>
+      <c r="C214" t="n">
         <v>2.258</v>
       </c>
-      <c r="C214" t="n">
-        <v>2.251</v>
-      </c>
       <c r="D214" t="n">
+        <v>2.259</v>
+      </c>
+      <c r="E214" t="n">
         <v>2.258</v>
       </c>
-      <c r="E214" t="n">
-        <v>2.251</v>
-      </c>
       <c r="F214" t="n">
-        <v>538093.0666</v>
+        <v>131015.3687</v>
       </c>
       <c r="G214" t="n">
-        <v>2.269283333333331</v>
+        <v>2.269583333333331</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8116,22 +8146,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>2.253</v>
+        <v>2.258</v>
       </c>
       <c r="C215" t="n">
-        <v>2.25</v>
+        <v>2.251</v>
       </c>
       <c r="D215" t="n">
-        <v>2.253</v>
+        <v>2.258</v>
       </c>
       <c r="E215" t="n">
-        <v>2.25</v>
+        <v>2.251</v>
       </c>
       <c r="F215" t="n">
-        <v>2985514.0034</v>
+        <v>538093.0666</v>
       </c>
       <c r="G215" t="n">
-        <v>2.269333333333331</v>
+        <v>2.269283333333331</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8158,19 +8188,19 @@
         <v>2.253</v>
       </c>
       <c r="C216" t="n">
-        <v>2.251</v>
+        <v>2.25</v>
       </c>
       <c r="D216" t="n">
         <v>2.253</v>
       </c>
       <c r="E216" t="n">
-        <v>2.251</v>
+        <v>2.25</v>
       </c>
       <c r="F216" t="n">
-        <v>2114669.051</v>
+        <v>2985514.0034</v>
       </c>
       <c r="G216" t="n">
-        <v>2.269399999999998</v>
+        <v>2.269333333333331</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8194,22 +8224,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>2.251</v>
+        <v>2.253</v>
       </c>
       <c r="C217" t="n">
         <v>2.251</v>
       </c>
       <c r="D217" t="n">
-        <v>2.251</v>
+        <v>2.253</v>
       </c>
       <c r="E217" t="n">
         <v>2.251</v>
       </c>
       <c r="F217" t="n">
-        <v>606589.2706</v>
+        <v>2114669.051</v>
       </c>
       <c r="G217" t="n">
-        <v>2.269116666666664</v>
+        <v>2.269399999999998</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8233,22 +8263,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>2.252</v>
+        <v>2.251</v>
       </c>
       <c r="C218" t="n">
-        <v>2.252</v>
+        <v>2.251</v>
       </c>
       <c r="D218" t="n">
-        <v>2.252</v>
+        <v>2.251</v>
       </c>
       <c r="E218" t="n">
-        <v>2.252</v>
+        <v>2.251</v>
       </c>
       <c r="F218" t="n">
-        <v>1396667.319</v>
+        <v>606589.2706</v>
       </c>
       <c r="G218" t="n">
-        <v>2.268833333333331</v>
+        <v>2.269116666666664</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8272,22 +8302,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>2.277</v>
+        <v>2.252</v>
       </c>
       <c r="C219" t="n">
-        <v>2.277</v>
+        <v>2.252</v>
       </c>
       <c r="D219" t="n">
-        <v>2.277</v>
+        <v>2.252</v>
       </c>
       <c r="E219" t="n">
-        <v>2.277</v>
+        <v>2.252</v>
       </c>
       <c r="F219" t="n">
-        <v>21610.9539</v>
+        <v>1396667.319</v>
       </c>
       <c r="G219" t="n">
-        <v>2.268966666666664</v>
+        <v>2.268833333333331</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8323,10 +8353,10 @@
         <v>2.277</v>
       </c>
       <c r="F220" t="n">
-        <v>672643.5678</v>
+        <v>21610.9539</v>
       </c>
       <c r="G220" t="n">
-        <v>2.269466666666664</v>
+        <v>2.268966666666664</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8350,22 +8380,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>2.253</v>
+        <v>2.277</v>
       </c>
       <c r="C221" t="n">
-        <v>2.251</v>
+        <v>2.277</v>
       </c>
       <c r="D221" t="n">
-        <v>2.253</v>
+        <v>2.277</v>
       </c>
       <c r="E221" t="n">
-        <v>2.251</v>
+        <v>2.277</v>
       </c>
       <c r="F221" t="n">
-        <v>647643.6066000001</v>
+        <v>672643.5678</v>
       </c>
       <c r="G221" t="n">
-        <v>2.268983333333331</v>
+        <v>2.269466666666664</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8392,19 +8422,19 @@
         <v>2.253</v>
       </c>
       <c r="C222" t="n">
-        <v>2.253</v>
+        <v>2.251</v>
       </c>
       <c r="D222" t="n">
         <v>2.253</v>
       </c>
       <c r="E222" t="n">
-        <v>2.253</v>
+        <v>2.251</v>
       </c>
       <c r="F222" t="n">
-        <v>37136.2064</v>
+        <v>647643.6066000001</v>
       </c>
       <c r="G222" t="n">
-        <v>2.268383333333331</v>
+        <v>2.268983333333331</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8428,22 +8458,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>2.28</v>
+        <v>2.253</v>
       </c>
       <c r="C223" t="n">
-        <v>2.28</v>
+        <v>2.253</v>
       </c>
       <c r="D223" t="n">
-        <v>2.28</v>
+        <v>2.253</v>
       </c>
       <c r="E223" t="n">
-        <v>2.28</v>
+        <v>2.253</v>
       </c>
       <c r="F223" t="n">
-        <v>20305.7085</v>
+        <v>37136.2064</v>
       </c>
       <c r="G223" t="n">
-        <v>2.268716666666664</v>
+        <v>2.268383333333331</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8473,16 +8503,16 @@
         <v>2.28</v>
       </c>
       <c r="D224" t="n">
-        <v>2.288</v>
+        <v>2.28</v>
       </c>
       <c r="E224" t="n">
         <v>2.28</v>
       </c>
       <c r="F224" t="n">
-        <v>489217.1929</v>
+        <v>20305.7085</v>
       </c>
       <c r="G224" t="n">
-        <v>2.268766666666664</v>
+        <v>2.268716666666664</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8506,22 +8536,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>2.288</v>
+        <v>2.28</v>
       </c>
       <c r="C225" t="n">
-        <v>2.288</v>
+        <v>2.28</v>
       </c>
       <c r="D225" t="n">
         <v>2.288</v>
       </c>
       <c r="E225" t="n">
-        <v>2.288</v>
+        <v>2.28</v>
       </c>
       <c r="F225" t="n">
-        <v>222</v>
+        <v>489217.1929</v>
       </c>
       <c r="G225" t="n">
-        <v>2.268949999999998</v>
+        <v>2.268766666666664</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8545,22 +8575,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>2.287</v>
+        <v>2.288</v>
       </c>
       <c r="C226" t="n">
-        <v>2.287</v>
+        <v>2.288</v>
       </c>
       <c r="D226" t="n">
-        <v>2.287</v>
+        <v>2.288</v>
       </c>
       <c r="E226" t="n">
-        <v>2.287</v>
+        <v>2.288</v>
       </c>
       <c r="F226" t="n">
-        <v>173680.0477</v>
+        <v>222</v>
       </c>
       <c r="G226" t="n">
-        <v>2.269399999999998</v>
+        <v>2.268949999999998</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8596,10 +8626,10 @@
         <v>2.287</v>
       </c>
       <c r="F227" t="n">
-        <v>444426.6924</v>
+        <v>173680.0477</v>
       </c>
       <c r="G227" t="n">
-        <v>2.269583333333332</v>
+        <v>2.269399999999998</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8623,22 +8653,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>2.27</v>
+        <v>2.287</v>
       </c>
       <c r="C228" t="n">
-        <v>2.27</v>
+        <v>2.287</v>
       </c>
       <c r="D228" t="n">
-        <v>2.27</v>
+        <v>2.287</v>
       </c>
       <c r="E228" t="n">
-        <v>2.27</v>
+        <v>2.287</v>
       </c>
       <c r="F228" t="n">
-        <v>13718.4104</v>
+        <v>444426.6924</v>
       </c>
       <c r="G228" t="n">
-        <v>2.269483333333332</v>
+        <v>2.269583333333332</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8674,10 +8704,10 @@
         <v>2.27</v>
       </c>
       <c r="F229" t="n">
-        <v>568255.5248</v>
+        <v>13718.4104</v>
       </c>
       <c r="G229" t="n">
-        <v>2.269383333333332</v>
+        <v>2.269483333333332</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8713,10 +8743,10 @@
         <v>2.27</v>
       </c>
       <c r="F230" t="n">
-        <v>104507.1324</v>
+        <v>568255.5248</v>
       </c>
       <c r="G230" t="n">
-        <v>2.269549999999998</v>
+        <v>2.269383333333332</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8740,22 +8770,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>2.28</v>
+        <v>2.27</v>
       </c>
       <c r="C231" t="n">
-        <v>2.28</v>
+        <v>2.27</v>
       </c>
       <c r="D231" t="n">
-        <v>2.28</v>
+        <v>2.27</v>
       </c>
       <c r="E231" t="n">
-        <v>2.28</v>
+        <v>2.27</v>
       </c>
       <c r="F231" t="n">
-        <v>222</v>
+        <v>104507.1324</v>
       </c>
       <c r="G231" t="n">
-        <v>2.269866666666665</v>
+        <v>2.269549999999998</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8779,22 +8809,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>2.279</v>
+        <v>2.28</v>
       </c>
       <c r="C232" t="n">
-        <v>2.279</v>
+        <v>2.28</v>
       </c>
       <c r="D232" t="n">
-        <v>2.279</v>
+        <v>2.28</v>
       </c>
       <c r="E232" t="n">
-        <v>2.279</v>
+        <v>2.28</v>
       </c>
       <c r="F232" t="n">
-        <v>300</v>
+        <v>222</v>
       </c>
       <c r="G232" t="n">
-        <v>2.269849999999999</v>
+        <v>2.269866666666665</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8830,10 +8860,10 @@
         <v>2.279</v>
       </c>
       <c r="F233" t="n">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="G233" t="n">
-        <v>2.269833333333332</v>
+        <v>2.269849999999999</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8857,22 +8887,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>2.27</v>
+        <v>2.279</v>
       </c>
       <c r="C234" t="n">
-        <v>2.27</v>
+        <v>2.279</v>
       </c>
       <c r="D234" t="n">
-        <v>2.27</v>
+        <v>2.279</v>
       </c>
       <c r="E234" t="n">
-        <v>2.27</v>
+        <v>2.279</v>
       </c>
       <c r="F234" t="n">
-        <v>240</v>
+        <v>3000</v>
       </c>
       <c r="G234" t="n">
-        <v>2.269666666666665</v>
+        <v>2.269833333333332</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8899,19 +8929,19 @@
         <v>2.27</v>
       </c>
       <c r="C235" t="n">
-        <v>2.278</v>
+        <v>2.27</v>
       </c>
       <c r="D235" t="n">
-        <v>2.278</v>
+        <v>2.27</v>
       </c>
       <c r="E235" t="n">
         <v>2.27</v>
       </c>
       <c r="F235" t="n">
-        <v>702</v>
+        <v>240</v>
       </c>
       <c r="G235" t="n">
-        <v>2.269483333333332</v>
+        <v>2.269666666666665</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8938,19 +8968,19 @@
         <v>2.27</v>
       </c>
       <c r="C236" t="n">
-        <v>2.261</v>
+        <v>2.278</v>
       </c>
       <c r="D236" t="n">
+        <v>2.278</v>
+      </c>
+      <c r="E236" t="n">
         <v>2.27</v>
       </c>
-      <c r="E236" t="n">
-        <v>2.261</v>
-      </c>
       <c r="F236" t="n">
-        <v>35421.2487</v>
+        <v>702</v>
       </c>
       <c r="G236" t="n">
-        <v>2.268999999999999</v>
+        <v>2.269483333333332</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -8974,22 +9004,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="C237" t="n">
         <v>2.261</v>
       </c>
-      <c r="C237" t="n">
-        <v>2.254</v>
-      </c>
       <c r="D237" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="E237" t="n">
         <v>2.261</v>
       </c>
-      <c r="E237" t="n">
-        <v>2.254</v>
-      </c>
       <c r="F237" t="n">
-        <v>116437.4252</v>
+        <v>35421.2487</v>
       </c>
       <c r="G237" t="n">
-        <v>2.268416666666666</v>
+        <v>2.268999999999999</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -9013,22 +9043,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>2.255</v>
+        <v>2.261</v>
       </c>
       <c r="C238" t="n">
-        <v>2.253</v>
+        <v>2.254</v>
       </c>
       <c r="D238" t="n">
-        <v>2.255</v>
+        <v>2.261</v>
       </c>
       <c r="E238" t="n">
-        <v>2.253</v>
+        <v>2.254</v>
       </c>
       <c r="F238" t="n">
-        <v>580000</v>
+        <v>116437.4252</v>
       </c>
       <c r="G238" t="n">
-        <v>2.267816666666666</v>
+        <v>2.268416666666666</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9052,22 +9082,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>2.278</v>
+        <v>2.255</v>
       </c>
       <c r="C239" t="n">
-        <v>2.278</v>
+        <v>2.253</v>
       </c>
       <c r="D239" t="n">
-        <v>2.278</v>
+        <v>2.255</v>
       </c>
       <c r="E239" t="n">
-        <v>2.278</v>
+        <v>2.253</v>
       </c>
       <c r="F239" t="n">
-        <v>63267.262</v>
+        <v>580000</v>
       </c>
       <c r="G239" t="n">
-        <v>2.267633333333333</v>
+        <v>2.267816666666666</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9103,10 +9133,10 @@
         <v>2.278</v>
       </c>
       <c r="F240" t="n">
-        <v>523</v>
+        <v>63267.262</v>
       </c>
       <c r="G240" t="n">
-        <v>2.267449999999999</v>
+        <v>2.267633333333333</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9130,22 +9160,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>2.273</v>
+        <v>2.278</v>
       </c>
       <c r="C241" t="n">
-        <v>2.27</v>
+        <v>2.278</v>
       </c>
       <c r="D241" t="n">
-        <v>2.273</v>
+        <v>2.278</v>
       </c>
       <c r="E241" t="n">
-        <v>2.27</v>
+        <v>2.278</v>
       </c>
       <c r="F241" t="n">
-        <v>444</v>
+        <v>523</v>
       </c>
       <c r="G241" t="n">
-        <v>2.267133333333333</v>
+        <v>2.267449999999999</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9169,22 +9199,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>2.278</v>
+        <v>2.273</v>
       </c>
       <c r="C242" t="n">
-        <v>2.278</v>
+        <v>2.27</v>
       </c>
       <c r="D242" t="n">
-        <v>2.278</v>
+        <v>2.273</v>
       </c>
       <c r="E242" t="n">
-        <v>2.278</v>
+        <v>2.27</v>
       </c>
       <c r="F242" t="n">
-        <v>222</v>
+        <v>444</v>
       </c>
       <c r="G242" t="n">
-        <v>2.26695</v>
+        <v>2.267133333333333</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9208,22 +9238,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>2.272</v>
+        <v>2.278</v>
       </c>
       <c r="C243" t="n">
-        <v>2.26</v>
+        <v>2.278</v>
       </c>
       <c r="D243" t="n">
-        <v>2.272</v>
+        <v>2.278</v>
       </c>
       <c r="E243" t="n">
-        <v>2.26</v>
+        <v>2.278</v>
       </c>
       <c r="F243" t="n">
-        <v>72645.23820000001</v>
+        <v>222</v>
       </c>
       <c r="G243" t="n">
-        <v>2.266366666666667</v>
+        <v>2.26695</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9247,22 +9277,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
+        <v>2.272</v>
+      </c>
+      <c r="C244" t="n">
         <v>2.26</v>
       </c>
-      <c r="C244" t="n">
-        <v>2.28</v>
-      </c>
       <c r="D244" t="n">
-        <v>2.28</v>
+        <v>2.272</v>
       </c>
       <c r="E244" t="n">
         <v>2.26</v>
       </c>
       <c r="F244" t="n">
-        <v>52420.0478</v>
+        <v>72645.23820000001</v>
       </c>
       <c r="G244" t="n">
-        <v>2.266116666666667</v>
+        <v>2.266366666666667</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9286,7 +9316,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>2.271</v>
+        <v>2.26</v>
       </c>
       <c r="C245" t="n">
         <v>2.28</v>
@@ -9295,13 +9325,13 @@
         <v>2.28</v>
       </c>
       <c r="E245" t="n">
-        <v>2.254</v>
+        <v>2.26</v>
       </c>
       <c r="F245" t="n">
-        <v>503101.0216</v>
+        <v>52420.0478</v>
       </c>
       <c r="G245" t="n">
-        <v>2.266083333333333</v>
+        <v>2.266116666666667</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9325,7 +9355,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>2.28</v>
+        <v>2.271</v>
       </c>
       <c r="C246" t="n">
         <v>2.28</v>
@@ -9334,13 +9364,13 @@
         <v>2.28</v>
       </c>
       <c r="E246" t="n">
-        <v>2.28</v>
+        <v>2.254</v>
       </c>
       <c r="F246" t="n">
-        <v>2187.4721</v>
+        <v>503101.0216</v>
       </c>
       <c r="G246" t="n">
-        <v>2.26605</v>
+        <v>2.266083333333333</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9364,22 +9394,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>2.271</v>
+        <v>2.28</v>
       </c>
       <c r="C247" t="n">
-        <v>2.258</v>
+        <v>2.28</v>
       </c>
       <c r="D247" t="n">
-        <v>2.271</v>
+        <v>2.28</v>
       </c>
       <c r="E247" t="n">
-        <v>2.258</v>
+        <v>2.28</v>
       </c>
       <c r="F247" t="n">
-        <v>223000</v>
+        <v>2187.4721</v>
       </c>
       <c r="G247" t="n">
-        <v>2.265683333333333</v>
+        <v>2.26605</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9403,22 +9433,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>2.28</v>
+        <v>2.271</v>
       </c>
       <c r="C248" t="n">
-        <v>2.267</v>
+        <v>2.258</v>
       </c>
       <c r="D248" t="n">
-        <v>2.28</v>
+        <v>2.271</v>
       </c>
       <c r="E248" t="n">
-        <v>2.267</v>
+        <v>2.258</v>
       </c>
       <c r="F248" t="n">
-        <v>666</v>
+        <v>223000</v>
       </c>
       <c r="G248" t="n">
-        <v>2.265866666666667</v>
+        <v>2.265683333333333</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9442,10 +9472,10 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="C249" t="n">
         <v>2.267</v>
-      </c>
-      <c r="C249" t="n">
-        <v>2.28</v>
       </c>
       <c r="D249" t="n">
         <v>2.28</v>
@@ -9457,7 +9487,7 @@
         <v>666</v>
       </c>
       <c r="G249" t="n">
-        <v>2.266366666666667</v>
+        <v>2.265866666666667</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9481,22 +9511,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>2.259</v>
+        <v>2.267</v>
       </c>
       <c r="C250" t="n">
-        <v>2.259</v>
+        <v>2.28</v>
       </c>
       <c r="D250" t="n">
-        <v>2.259</v>
+        <v>2.28</v>
       </c>
       <c r="E250" t="n">
-        <v>2.259</v>
+        <v>2.267</v>
       </c>
       <c r="F250" t="n">
-        <v>240</v>
+        <v>666</v>
       </c>
       <c r="G250" t="n">
-        <v>2.266416666666666</v>
+        <v>2.266366666666667</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9520,22 +9550,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>2.263</v>
+        <v>2.259</v>
       </c>
       <c r="C251" t="n">
-        <v>2.276</v>
+        <v>2.259</v>
       </c>
       <c r="D251" t="n">
-        <v>2.276</v>
+        <v>2.259</v>
       </c>
       <c r="E251" t="n">
-        <v>2.263</v>
+        <v>2.259</v>
       </c>
       <c r="F251" t="n">
-        <v>144813.12</v>
+        <v>240</v>
       </c>
       <c r="G251" t="n">
-        <v>2.26675</v>
+        <v>2.266416666666666</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9559,22 +9589,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>2.259</v>
+        <v>2.263</v>
       </c>
       <c r="C252" t="n">
-        <v>2.259</v>
+        <v>2.276</v>
       </c>
       <c r="D252" t="n">
-        <v>2.259</v>
+        <v>2.276</v>
       </c>
       <c r="E252" t="n">
-        <v>2.259</v>
+        <v>2.263</v>
       </c>
       <c r="F252" t="n">
-        <v>240</v>
+        <v>144813.12</v>
       </c>
       <c r="G252" t="n">
-        <v>2.266566666666666</v>
+        <v>2.26675</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9598,22 +9628,22 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>2.26</v>
+        <v>2.259</v>
       </c>
       <c r="C253" t="n">
         <v>2.259</v>
       </c>
       <c r="D253" t="n">
-        <v>2.26</v>
+        <v>2.259</v>
       </c>
       <c r="E253" t="n">
         <v>2.259</v>
       </c>
       <c r="F253" t="n">
-        <v>142742.4399</v>
+        <v>240</v>
       </c>
       <c r="G253" t="n">
-        <v>2.266699999999999</v>
+        <v>2.266566666666666</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9637,22 +9667,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>2.264</v>
+        <v>2.26</v>
       </c>
       <c r="C254" t="n">
-        <v>2.275</v>
+        <v>2.259</v>
       </c>
       <c r="D254" t="n">
-        <v>2.275</v>
+        <v>2.26</v>
       </c>
       <c r="E254" t="n">
-        <v>2.264</v>
+        <v>2.259</v>
       </c>
       <c r="F254" t="n">
-        <v>2851</v>
+        <v>142742.4399</v>
       </c>
       <c r="G254" t="n">
-        <v>2.266783333333332</v>
+        <v>2.266699999999999</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9676,22 +9706,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>2.259</v>
+        <v>2.264</v>
       </c>
       <c r="C255" t="n">
-        <v>2.259</v>
+        <v>2.275</v>
       </c>
       <c r="D255" t="n">
-        <v>2.259</v>
+        <v>2.275</v>
       </c>
       <c r="E255" t="n">
-        <v>2.259</v>
+        <v>2.264</v>
       </c>
       <c r="F255" t="n">
-        <v>250</v>
+        <v>2851</v>
       </c>
       <c r="G255" t="n">
-        <v>2.266433333333332</v>
+        <v>2.266783333333332</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9715,22 +9745,22 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>2.274</v>
+        <v>2.259</v>
       </c>
       <c r="C256" t="n">
-        <v>2.274</v>
+        <v>2.259</v>
       </c>
       <c r="D256" t="n">
-        <v>2.274</v>
+        <v>2.259</v>
       </c>
       <c r="E256" t="n">
-        <v>2.274</v>
+        <v>2.259</v>
       </c>
       <c r="F256" t="n">
-        <v>249.3239</v>
+        <v>250</v>
       </c>
       <c r="G256" t="n">
-        <v>2.266816666666665</v>
+        <v>2.266433333333332</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9754,22 +9784,22 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>2.26</v>
+        <v>2.274</v>
       </c>
       <c r="C257" t="n">
-        <v>2.26</v>
+        <v>2.274</v>
       </c>
       <c r="D257" t="n">
-        <v>2.26</v>
+        <v>2.274</v>
       </c>
       <c r="E257" t="n">
-        <v>2.26</v>
+        <v>2.274</v>
       </c>
       <c r="F257" t="n">
-        <v>2500</v>
+        <v>249.3239</v>
       </c>
       <c r="G257" t="n">
-        <v>2.266966666666665</v>
+        <v>2.266816666666665</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9793,22 +9823,22 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>2.273</v>
+        <v>2.26</v>
       </c>
       <c r="C258" t="n">
-        <v>2.273</v>
+        <v>2.26</v>
       </c>
       <c r="D258" t="n">
-        <v>2.273</v>
+        <v>2.26</v>
       </c>
       <c r="E258" t="n">
-        <v>2.273</v>
+        <v>2.26</v>
       </c>
       <c r="F258" t="n">
-        <v>250</v>
+        <v>2500</v>
       </c>
       <c r="G258" t="n">
-        <v>2.267099999999999</v>
+        <v>2.266966666666665</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -9832,22 +9862,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>2.272</v>
+        <v>2.273</v>
       </c>
       <c r="C259" t="n">
-        <v>2.271</v>
+        <v>2.273</v>
       </c>
       <c r="D259" t="n">
-        <v>2.272</v>
+        <v>2.273</v>
       </c>
       <c r="E259" t="n">
-        <v>2.271</v>
+        <v>2.273</v>
       </c>
       <c r="F259" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="G259" t="n">
-        <v>2.267416666666665</v>
+        <v>2.267099999999999</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9871,22 +9901,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>2.261</v>
+        <v>2.272</v>
       </c>
       <c r="C260" t="n">
-        <v>2.26</v>
+        <v>2.271</v>
       </c>
       <c r="D260" t="n">
-        <v>2.273</v>
+        <v>2.272</v>
       </c>
       <c r="E260" t="n">
-        <v>2.26</v>
+        <v>2.271</v>
       </c>
       <c r="F260" t="n">
-        <v>2904.8778</v>
+        <v>600</v>
       </c>
       <c r="G260" t="n">
-        <v>2.267466666666665</v>
+        <v>2.267416666666665</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9910,22 +9940,22 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
+        <v>2.261</v>
+      </c>
+      <c r="C261" t="n">
         <v>2.26</v>
       </c>
-      <c r="C261" t="n">
-        <v>2.259</v>
-      </c>
       <c r="D261" t="n">
+        <v>2.273</v>
+      </c>
+      <c r="E261" t="n">
         <v>2.26</v>
       </c>
-      <c r="E261" t="n">
-        <v>2.259</v>
-      </c>
       <c r="F261" t="n">
-        <v>734879.2388000001</v>
+        <v>2904.8778</v>
       </c>
       <c r="G261" t="n">
-        <v>2.267499999999998</v>
+        <v>2.267466666666665</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9949,19 +9979,19 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>2.257</v>
+        <v>2.26</v>
       </c>
       <c r="C262" t="n">
-        <v>2.257</v>
+        <v>2.259</v>
       </c>
       <c r="D262" t="n">
-        <v>2.257</v>
+        <v>2.26</v>
       </c>
       <c r="E262" t="n">
-        <v>2.257</v>
+        <v>2.259</v>
       </c>
       <c r="F262" t="n">
-        <v>240</v>
+        <v>734879.2388000001</v>
       </c>
       <c r="G262" t="n">
         <v>2.267499999999998</v>
@@ -9988,22 +10018,22 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>2.259</v>
+        <v>2.257</v>
       </c>
       <c r="C263" t="n">
-        <v>2.259</v>
+        <v>2.257</v>
       </c>
       <c r="D263" t="n">
-        <v>2.262</v>
+        <v>2.257</v>
       </c>
       <c r="E263" t="n">
-        <v>2.259</v>
+        <v>2.257</v>
       </c>
       <c r="F263" t="n">
-        <v>2761598.3998</v>
+        <v>240</v>
       </c>
       <c r="G263" t="n">
-        <v>2.267533333333331</v>
+        <v>2.267499999999998</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -10027,22 +10057,22 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>2.26</v>
+        <v>2.259</v>
       </c>
       <c r="C264" t="n">
         <v>2.259</v>
       </c>
       <c r="D264" t="n">
-        <v>2.26</v>
+        <v>2.262</v>
       </c>
       <c r="E264" t="n">
         <v>2.259</v>
       </c>
       <c r="F264" t="n">
-        <v>87323.1946</v>
+        <v>2761598.3998</v>
       </c>
       <c r="G264" t="n">
-        <v>2.267566666666664</v>
+        <v>2.267533333333331</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -10066,10 +10096,10 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="C265" t="n">
         <v>2.259</v>
-      </c>
-      <c r="C265" t="n">
-        <v>2.26</v>
       </c>
       <c r="D265" t="n">
         <v>2.26</v>
@@ -10078,10 +10108,10 @@
         <v>2.259</v>
       </c>
       <c r="F265" t="n">
-        <v>435212.7111</v>
+        <v>87323.1946</v>
       </c>
       <c r="G265" t="n">
-        <v>2.267366666666664</v>
+        <v>2.267566666666664</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -10105,10 +10135,10 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
+        <v>2.259</v>
+      </c>
+      <c r="C266" t="n">
         <v>2.26</v>
-      </c>
-      <c r="C266" t="n">
-        <v>2.259</v>
       </c>
       <c r="D266" t="n">
         <v>2.26</v>
@@ -10117,10 +10147,10 @@
         <v>2.259</v>
       </c>
       <c r="F266" t="n">
-        <v>226892.0546</v>
+        <v>435212.7111</v>
       </c>
       <c r="G266" t="n">
-        <v>2.26738333333333</v>
+        <v>2.267366666666664</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -10144,22 +10174,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="C267" t="n">
         <v>2.259</v>
       </c>
-      <c r="C267" t="n">
-        <v>2.257</v>
-      </c>
       <c r="D267" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="E267" t="n">
         <v>2.259</v>
       </c>
-      <c r="E267" t="n">
-        <v>2.257</v>
-      </c>
       <c r="F267" t="n">
-        <v>100000</v>
+        <v>226892.0546</v>
       </c>
       <c r="G267" t="n">
-        <v>2.267349999999997</v>
+        <v>2.26738333333333</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -10183,22 +10213,22 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
+        <v>2.259</v>
+      </c>
+      <c r="C268" t="n">
         <v>2.257</v>
       </c>
-      <c r="C268" t="n">
-        <v>2.249</v>
-      </c>
       <c r="D268" t="n">
+        <v>2.259</v>
+      </c>
+      <c r="E268" t="n">
         <v>2.257</v>
       </c>
-      <c r="E268" t="n">
-        <v>2.249</v>
-      </c>
       <c r="F268" t="n">
-        <v>3157936.9401</v>
+        <v>100000</v>
       </c>
       <c r="G268" t="n">
-        <v>2.267083333333331</v>
+        <v>2.267349999999997</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -10222,22 +10252,22 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>2.249</v>
+        <v>2.257</v>
       </c>
       <c r="C269" t="n">
         <v>2.249</v>
       </c>
       <c r="D269" t="n">
+        <v>2.257</v>
+      </c>
+      <c r="E269" t="n">
         <v>2.249</v>
       </c>
-      <c r="E269" t="n">
-        <v>2.248</v>
-      </c>
       <c r="F269" t="n">
-        <v>120553.6436</v>
+        <v>3157936.9401</v>
       </c>
       <c r="G269" t="n">
-        <v>2.26693333333333</v>
+        <v>2.267083333333331</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -10264,19 +10294,19 @@
         <v>2.249</v>
       </c>
       <c r="C270" t="n">
-        <v>2.25</v>
+        <v>2.249</v>
       </c>
       <c r="D270" t="n">
-        <v>2.272</v>
+        <v>2.249</v>
       </c>
       <c r="E270" t="n">
-        <v>2.249</v>
+        <v>2.248</v>
       </c>
       <c r="F270" t="n">
-        <v>11397.87</v>
+        <v>120553.6436</v>
       </c>
       <c r="G270" t="n">
-        <v>2.266649999999997</v>
+        <v>2.26693333333333</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -10303,19 +10333,19 @@
         <v>2.249</v>
       </c>
       <c r="C271" t="n">
-        <v>2.249</v>
+        <v>2.25</v>
       </c>
       <c r="D271" t="n">
-        <v>2.249</v>
+        <v>2.272</v>
       </c>
       <c r="E271" t="n">
         <v>2.249</v>
       </c>
       <c r="F271" t="n">
-        <v>240</v>
+        <v>11397.87</v>
       </c>
       <c r="G271" t="n">
-        <v>2.266266666666664</v>
+        <v>2.266649999999997</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -10345,16 +10375,16 @@
         <v>2.249</v>
       </c>
       <c r="D272" t="n">
-        <v>2.258</v>
+        <v>2.249</v>
       </c>
       <c r="E272" t="n">
         <v>2.249</v>
       </c>
       <c r="F272" t="n">
-        <v>3483.7045</v>
+        <v>240</v>
       </c>
       <c r="G272" t="n">
-        <v>2.265783333333331</v>
+        <v>2.266266666666664</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -10378,19 +10408,19 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>2.258</v>
+        <v>2.249</v>
       </c>
       <c r="C273" t="n">
-        <v>2.258</v>
+        <v>2.249</v>
       </c>
       <c r="D273" t="n">
         <v>2.258</v>
       </c>
       <c r="E273" t="n">
-        <v>2.258</v>
+        <v>2.249</v>
       </c>
       <c r="F273" t="n">
-        <v>135.7519</v>
+        <v>3483.7045</v>
       </c>
       <c r="G273" t="n">
         <v>2.265783333333331</v>
@@ -10420,19 +10450,19 @@
         <v>2.258</v>
       </c>
       <c r="C274" t="n">
-        <v>2.246</v>
+        <v>2.258</v>
       </c>
       <c r="D274" t="n">
         <v>2.258</v>
       </c>
       <c r="E274" t="n">
-        <v>2.245</v>
+        <v>2.258</v>
       </c>
       <c r="F274" t="n">
-        <v>773777.9378</v>
+        <v>135.7519</v>
       </c>
       <c r="G274" t="n">
-        <v>2.265699999999997</v>
+        <v>2.265783333333331</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -10456,22 +10486,22 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>2.247</v>
+        <v>2.258</v>
       </c>
       <c r="C275" t="n">
-        <v>2.247</v>
+        <v>2.246</v>
       </c>
       <c r="D275" t="n">
-        <v>2.247</v>
+        <v>2.258</v>
       </c>
       <c r="E275" t="n">
-        <v>2.247</v>
+        <v>2.245</v>
       </c>
       <c r="F275" t="n">
-        <v>260</v>
+        <v>773777.9378</v>
       </c>
       <c r="G275" t="n">
-        <v>2.265649999999998</v>
+        <v>2.265699999999997</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10495,22 +10525,22 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>2.249</v>
+        <v>2.247</v>
       </c>
       <c r="C276" t="n">
-        <v>2.249</v>
+        <v>2.247</v>
       </c>
       <c r="D276" t="n">
-        <v>2.249</v>
+        <v>2.247</v>
       </c>
       <c r="E276" t="n">
-        <v>2.249</v>
+        <v>2.247</v>
       </c>
       <c r="F276" t="n">
         <v>260</v>
       </c>
       <c r="G276" t="n">
-        <v>2.265616666666664</v>
+        <v>2.265649999999998</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10546,10 +10576,10 @@
         <v>2.249</v>
       </c>
       <c r="F277" t="n">
-        <v>426835.1764</v>
+        <v>260</v>
       </c>
       <c r="G277" t="n">
-        <v>2.265583333333331</v>
+        <v>2.265616666666664</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10573,22 +10603,22 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>2.248</v>
+        <v>2.249</v>
       </c>
       <c r="C278" t="n">
-        <v>2.248</v>
+        <v>2.249</v>
       </c>
       <c r="D278" t="n">
-        <v>2.248</v>
+        <v>2.249</v>
       </c>
       <c r="E278" t="n">
-        <v>2.248</v>
+        <v>2.249</v>
       </c>
       <c r="F278" t="n">
-        <v>43456.6161</v>
+        <v>426835.1764</v>
       </c>
       <c r="G278" t="n">
-        <v>2.265516666666664</v>
+        <v>2.265583333333331</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -10612,22 +10642,22 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>2.247</v>
+        <v>2.248</v>
       </c>
       <c r="C279" t="n">
-        <v>2.247</v>
+        <v>2.248</v>
       </c>
       <c r="D279" t="n">
-        <v>2.247</v>
+        <v>2.248</v>
       </c>
       <c r="E279" t="n">
-        <v>2.247</v>
+        <v>2.248</v>
       </c>
       <c r="F279" t="n">
-        <v>238078.9732</v>
+        <v>43456.6161</v>
       </c>
       <c r="G279" t="n">
-        <v>2.265016666666664</v>
+        <v>2.265516666666664</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -10651,22 +10681,22 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>2.246</v>
+        <v>2.247</v>
       </c>
       <c r="C280" t="n">
-        <v>2.246</v>
+        <v>2.247</v>
       </c>
       <c r="D280" t="n">
-        <v>2.246</v>
+        <v>2.247</v>
       </c>
       <c r="E280" t="n">
-        <v>2.246</v>
+        <v>2.247</v>
       </c>
       <c r="F280" t="n">
-        <v>736378.3809</v>
+        <v>238078.9732</v>
       </c>
       <c r="G280" t="n">
-        <v>2.264499999999998</v>
+        <v>2.265016666666664</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -10702,10 +10732,10 @@
         <v>2.246</v>
       </c>
       <c r="F281" t="n">
-        <v>13291.9806</v>
+        <v>736378.3809</v>
       </c>
       <c r="G281" t="n">
-        <v>2.264416666666664</v>
+        <v>2.264499999999998</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -10741,10 +10771,10 @@
         <v>2.246</v>
       </c>
       <c r="F282" t="n">
-        <v>250000</v>
+        <v>13291.9806</v>
       </c>
       <c r="G282" t="n">
-        <v>2.264299999999998</v>
+        <v>2.264416666666664</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -10768,22 +10798,22 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>2.255</v>
+        <v>2.246</v>
       </c>
       <c r="C283" t="n">
-        <v>2.255</v>
+        <v>2.246</v>
       </c>
       <c r="D283" t="n">
-        <v>2.255</v>
+        <v>2.246</v>
       </c>
       <c r="E283" t="n">
-        <v>2.255</v>
+        <v>2.246</v>
       </c>
       <c r="F283" t="n">
-        <v>13612.383</v>
+        <v>250000</v>
       </c>
       <c r="G283" t="n">
-        <v>2.263883333333331</v>
+        <v>2.264299999999998</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -10819,10 +10849,10 @@
         <v>2.255</v>
       </c>
       <c r="F284" t="n">
-        <v>1200</v>
+        <v>13612.383</v>
       </c>
       <c r="G284" t="n">
-        <v>2.263466666666665</v>
+        <v>2.263883333333331</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -10846,22 +10876,22 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>2.257</v>
+        <v>2.255</v>
       </c>
       <c r="C285" t="n">
-        <v>2.257</v>
+        <v>2.255</v>
       </c>
       <c r="D285" t="n">
-        <v>2.257</v>
+        <v>2.255</v>
       </c>
       <c r="E285" t="n">
-        <v>2.257</v>
+        <v>2.255</v>
       </c>
       <c r="F285" t="n">
-        <v>1951.8579</v>
+        <v>1200</v>
       </c>
       <c r="G285" t="n">
-        <v>2.262949999999998</v>
+        <v>2.263466666666665</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -10897,10 +10927,10 @@
         <v>2.257</v>
       </c>
       <c r="F286" t="n">
-        <v>250</v>
+        <v>1951.8579</v>
       </c>
       <c r="G286" t="n">
-        <v>2.262449999999998</v>
+        <v>2.262949999999998</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -10927,19 +10957,19 @@
         <v>2.257</v>
       </c>
       <c r="C287" t="n">
-        <v>2.248</v>
+        <v>2.257</v>
       </c>
       <c r="D287" t="n">
         <v>2.257</v>
       </c>
       <c r="E287" t="n">
-        <v>2.248</v>
+        <v>2.257</v>
       </c>
       <c r="F287" t="n">
-        <v>539881.9978</v>
+        <v>250</v>
       </c>
       <c r="G287" t="n">
-        <v>2.261799999999998</v>
+        <v>2.262449999999998</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -10963,22 +10993,22 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>2.248</v>
+        <v>2.257</v>
       </c>
       <c r="C288" t="n">
         <v>2.248</v>
       </c>
       <c r="D288" t="n">
-        <v>2.248</v>
+        <v>2.257</v>
       </c>
       <c r="E288" t="n">
         <v>2.248</v>
       </c>
       <c r="F288" t="n">
-        <v>200000</v>
+        <v>539881.9978</v>
       </c>
       <c r="G288" t="n">
-        <v>2.261433333333331</v>
+        <v>2.261799999999998</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -11014,10 +11044,10 @@
         <v>2.248</v>
       </c>
       <c r="F289" t="n">
-        <v>240</v>
+        <v>200000</v>
       </c>
       <c r="G289" t="n">
-        <v>2.261066666666664</v>
+        <v>2.261433333333331</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -11053,10 +11083,10 @@
         <v>2.248</v>
       </c>
       <c r="F290" t="n">
-        <v>100000</v>
+        <v>240</v>
       </c>
       <c r="G290" t="n">
-        <v>2.260699999999997</v>
+        <v>2.261066666666664</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -11083,19 +11113,19 @@
         <v>2.248</v>
       </c>
       <c r="C291" t="n">
-        <v>2.257</v>
+        <v>2.248</v>
       </c>
       <c r="D291" t="n">
-        <v>2.257</v>
+        <v>2.248</v>
       </c>
       <c r="E291" t="n">
         <v>2.248</v>
       </c>
       <c r="F291" t="n">
-        <v>142264.9253</v>
+        <v>100000</v>
       </c>
       <c r="G291" t="n">
-        <v>2.260316666666663</v>
+        <v>2.260699999999997</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -11119,22 +11149,22 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>2.258</v>
+        <v>2.248</v>
       </c>
       <c r="C292" t="n">
-        <v>2.258</v>
+        <v>2.257</v>
       </c>
       <c r="D292" t="n">
-        <v>2.258</v>
+        <v>2.257</v>
       </c>
       <c r="E292" t="n">
-        <v>2.258</v>
+        <v>2.248</v>
       </c>
       <c r="F292" t="n">
-        <v>43541.8381</v>
+        <v>142264.9253</v>
       </c>
       <c r="G292" t="n">
-        <v>2.259966666666664</v>
+        <v>2.260316666666663</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -11158,22 +11188,22 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>2.248</v>
+        <v>2.258</v>
       </c>
       <c r="C293" t="n">
-        <v>2.246</v>
+        <v>2.258</v>
       </c>
       <c r="D293" t="n">
-        <v>2.248</v>
+        <v>2.258</v>
       </c>
       <c r="E293" t="n">
-        <v>2.246</v>
+        <v>2.258</v>
       </c>
       <c r="F293" t="n">
-        <v>1180350.776</v>
+        <v>43541.8381</v>
       </c>
       <c r="G293" t="n">
-        <v>2.259416666666664</v>
+        <v>2.259966666666664</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -11197,22 +11227,22 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>2.259</v>
+        <v>2.248</v>
       </c>
       <c r="C294" t="n">
-        <v>2.259</v>
+        <v>2.246</v>
       </c>
       <c r="D294" t="n">
-        <v>2.259</v>
+        <v>2.248</v>
       </c>
       <c r="E294" t="n">
-        <v>2.259</v>
+        <v>2.246</v>
       </c>
       <c r="F294" t="n">
-        <v>106938.8988</v>
+        <v>1180350.776</v>
       </c>
       <c r="G294" t="n">
-        <v>2.25923333333333</v>
+        <v>2.259416666666664</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -11236,22 +11266,22 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>2.247</v>
+        <v>2.259</v>
       </c>
       <c r="C295" t="n">
-        <v>2.246</v>
+        <v>2.259</v>
       </c>
       <c r="D295" t="n">
-        <v>2.247</v>
+        <v>2.259</v>
       </c>
       <c r="E295" t="n">
-        <v>2.246</v>
+        <v>2.259</v>
       </c>
       <c r="F295" t="n">
-        <v>318570.2249</v>
+        <v>106938.8988</v>
       </c>
       <c r="G295" t="n">
-        <v>2.258699999999997</v>
+        <v>2.25923333333333</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -11275,22 +11305,22 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>2.245</v>
+        <v>2.247</v>
       </c>
       <c r="C296" t="n">
-        <v>2.245</v>
+        <v>2.246</v>
       </c>
       <c r="D296" t="n">
-        <v>2.245</v>
+        <v>2.247</v>
       </c>
       <c r="E296" t="n">
-        <v>2.245</v>
+        <v>2.246</v>
       </c>
       <c r="F296" t="n">
-        <v>1021266.9629</v>
+        <v>318570.2249</v>
       </c>
       <c r="G296" t="n">
-        <v>2.25843333333333</v>
+        <v>2.258699999999997</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -11326,10 +11356,10 @@
         <v>2.245</v>
       </c>
       <c r="F297" t="n">
-        <v>337804.3665</v>
+        <v>1021266.9629</v>
       </c>
       <c r="G297" t="n">
-        <v>2.258283333333331</v>
+        <v>2.25843333333333</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -11365,10 +11395,10 @@
         <v>2.245</v>
       </c>
       <c r="F298" t="n">
-        <v>123014.0884</v>
+        <v>337804.3665</v>
       </c>
       <c r="G298" t="n">
-        <v>2.258149999999998</v>
+        <v>2.258283333333331</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -11404,10 +11434,10 @@
         <v>2.245</v>
       </c>
       <c r="F299" t="n">
-        <v>40844.1281</v>
+        <v>123014.0884</v>
       </c>
       <c r="G299" t="n">
-        <v>2.257599999999998</v>
+        <v>2.258149999999998</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -11443,10 +11473,10 @@
         <v>2.245</v>
       </c>
       <c r="F300" t="n">
-        <v>11923.9456</v>
+        <v>40844.1281</v>
       </c>
       <c r="G300" t="n">
-        <v>2.257049999999998</v>
+        <v>2.257599999999998</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -11482,10 +11512,10 @@
         <v>2.245</v>
       </c>
       <c r="F301" t="n">
-        <v>11923.9457</v>
+        <v>11923.9456</v>
       </c>
       <c r="G301" t="n">
-        <v>2.256633333333331</v>
+        <v>2.257049999999998</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -11509,22 +11539,22 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>2.26</v>
+        <v>2.245</v>
       </c>
       <c r="C302" t="n">
-        <v>2.26</v>
+        <v>2.245</v>
       </c>
       <c r="D302" t="n">
-        <v>2.26</v>
+        <v>2.245</v>
       </c>
       <c r="E302" t="n">
-        <v>2.26</v>
+        <v>2.245</v>
       </c>
       <c r="F302" t="n">
-        <v>1989.2525</v>
+        <v>11923.9457</v>
       </c>
       <c r="G302" t="n">
-        <v>2.256333333333331</v>
+        <v>2.256633333333331</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -11560,7 +11590,7 @@
         <v>2.26</v>
       </c>
       <c r="F303" t="n">
-        <v>12477.4501</v>
+        <v>1989.2525</v>
       </c>
       <c r="G303" t="n">
         <v>2.256333333333331</v>
@@ -11587,22 +11617,22 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>2.263</v>
+        <v>2.26</v>
       </c>
       <c r="C304" t="n">
-        <v>2.263</v>
+        <v>2.26</v>
       </c>
       <c r="D304" t="n">
-        <v>2.263</v>
+        <v>2.26</v>
       </c>
       <c r="E304" t="n">
-        <v>2.263</v>
+        <v>2.26</v>
       </c>
       <c r="F304" t="n">
-        <v>68067.3658</v>
+        <v>12477.4501</v>
       </c>
       <c r="G304" t="n">
-        <v>2.256049999999998</v>
+        <v>2.256333333333331</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -11626,22 +11656,22 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>2.26</v>
+        <v>2.263</v>
       </c>
       <c r="C305" t="n">
-        <v>2.246</v>
+        <v>2.263</v>
       </c>
       <c r="D305" t="n">
-        <v>2.26</v>
+        <v>2.263</v>
       </c>
       <c r="E305" t="n">
-        <v>2.246</v>
+        <v>2.263</v>
       </c>
       <c r="F305" t="n">
-        <v>144089.4298</v>
+        <v>68067.3658</v>
       </c>
       <c r="G305" t="n">
-        <v>2.255483333333332</v>
+        <v>2.256049999999998</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -11665,22 +11695,22 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>2.262</v>
+        <v>2.26</v>
       </c>
       <c r="C306" t="n">
-        <v>2.245</v>
+        <v>2.246</v>
       </c>
       <c r="D306" t="n">
-        <v>2.262</v>
+        <v>2.26</v>
       </c>
       <c r="E306" t="n">
-        <v>2.245</v>
+        <v>2.246</v>
       </c>
       <c r="F306" t="n">
-        <v>1509264.4474</v>
+        <v>144089.4298</v>
       </c>
       <c r="G306" t="n">
-        <v>2.254899999999998</v>
+        <v>2.255483333333332</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -11704,22 +11734,22 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>2.26</v>
+        <v>2.262</v>
       </c>
       <c r="C307" t="n">
-        <v>2.26</v>
+        <v>2.245</v>
       </c>
       <c r="D307" t="n">
-        <v>2.26</v>
+        <v>2.262</v>
       </c>
       <c r="E307" t="n">
-        <v>2.26</v>
+        <v>2.245</v>
       </c>
       <c r="F307" t="n">
-        <v>1669.5769</v>
+        <v>1509264.4474</v>
       </c>
       <c r="G307" t="n">
-        <v>2.254933333333331</v>
+        <v>2.254899999999998</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -11743,22 +11773,22 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>2.249</v>
+        <v>2.26</v>
       </c>
       <c r="C308" t="n">
-        <v>2.249</v>
+        <v>2.26</v>
       </c>
       <c r="D308" t="n">
-        <v>2.249</v>
+        <v>2.26</v>
       </c>
       <c r="E308" t="n">
-        <v>2.249</v>
+        <v>2.26</v>
       </c>
       <c r="F308" t="n">
-        <v>250</v>
+        <v>1669.5769</v>
       </c>
       <c r="G308" t="n">
-        <v>2.254633333333331</v>
+        <v>2.254933333333331</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -11794,10 +11824,10 @@
         <v>2.249</v>
       </c>
       <c r="F309" t="n">
-        <v>3754.06</v>
+        <v>250</v>
       </c>
       <c r="G309" t="n">
-        <v>2.254116666666664</v>
+        <v>2.254633333333331</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -11824,19 +11854,19 @@
         <v>2.249</v>
       </c>
       <c r="C310" t="n">
-        <v>2.248</v>
+        <v>2.249</v>
       </c>
       <c r="D310" t="n">
         <v>2.249</v>
       </c>
       <c r="E310" t="n">
-        <v>2.248</v>
+        <v>2.249</v>
       </c>
       <c r="F310" t="n">
-        <v>102106.64</v>
+        <v>3754.06</v>
       </c>
       <c r="G310" t="n">
-        <v>2.253933333333331</v>
+        <v>2.254116666666664</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -11860,22 +11890,22 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>2.248</v>
+        <v>2.249</v>
       </c>
       <c r="C311" t="n">
         <v>2.248</v>
       </c>
       <c r="D311" t="n">
-        <v>2.248</v>
+        <v>2.249</v>
       </c>
       <c r="E311" t="n">
         <v>2.248</v>
       </c>
       <c r="F311" t="n">
-        <v>228725.1268</v>
+        <v>102106.64</v>
       </c>
       <c r="G311" t="n">
-        <v>2.253466666666664</v>
+        <v>2.253933333333331</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -11891,6 +11921,45 @@
         </is>
       </c>
       <c r="M311" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>2.248</v>
+      </c>
+      <c r="C312" t="n">
+        <v>2.248</v>
+      </c>
+      <c r="D312" t="n">
+        <v>2.248</v>
+      </c>
+      <c r="E312" t="n">
+        <v>2.248</v>
+      </c>
+      <c r="F312" t="n">
+        <v>228725.1268</v>
+      </c>
+      <c r="G312" t="n">
+        <v>2.253466666666664</v>
+      </c>
+      <c r="H312" t="n">
+        <v>0</v>
+      </c>
+      <c r="I312" t="n">
+        <v>0</v>
+      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M312" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-21 BackTest FNB.xlsx
+++ b/BackTest/2020-01-21 BackTest FNB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -649,14 +649,10 @@
         <v>9818450.33101904</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
@@ -686,19 +682,11 @@
         <v>9789938.75191904</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.247</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -727,19 +715,11 @@
         <v>9789938.75191904</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -768,7 +748,7 @@
         <v>9790161.00441904</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>2.24</v>
@@ -805,11 +785,9 @@
         <v>9789705.75191904</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
         <v>2.24</v>
       </c>
@@ -846,7 +824,7 @@
         <v>9789705.75191904</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>2.231</v>
@@ -887,7 +865,7 @@
         <v>9810677.847119041</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>2.231</v>
@@ -928,9 +906,11 @@
         <v>9861060.453619041</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.241</v>
+      </c>
       <c r="J15" t="n">
         <v>2.24</v>
       </c>
@@ -1552,9 +1532,11 @@
         <v>11234190.73611904</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.265</v>
+      </c>
       <c r="J31" t="n">
         <v>2.24</v>
       </c>
@@ -1630,9 +1612,11 @@
         <v>11233958.73611904</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.265</v>
+      </c>
       <c r="J33" t="n">
         <v>2.24</v>
       </c>
@@ -1864,9 +1848,11 @@
         <v>9531245.202119039</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2.261</v>
+      </c>
       <c r="J39" t="n">
         <v>2.24</v>
       </c>
@@ -1903,9 +1889,11 @@
         <v>9531005.202119039</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2.261</v>
+      </c>
       <c r="J40" t="n">
         <v>2.24</v>
       </c>
@@ -1942,9 +1930,11 @@
         <v>9531005.202119039</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2.255</v>
+      </c>
       <c r="J41" t="n">
         <v>2.24</v>
       </c>
@@ -2059,9 +2049,11 @@
         <v>5700236.636719039</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2.233</v>
+      </c>
       <c r="J44" t="n">
         <v>2.24</v>
       </c>
@@ -2176,9 +2168,11 @@
         <v>5642457.858119039</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2.24</v>
+      </c>
       <c r="J47" t="n">
         <v>2.24</v>
       </c>
@@ -2215,9 +2209,11 @@
         <v>5642227.858119039</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2.26</v>
+      </c>
       <c r="J48" t="n">
         <v>2.24</v>
       </c>
@@ -2254,9 +2250,11 @@
         <v>5642227.858119039</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2.24</v>
+      </c>
       <c r="J49" t="n">
         <v>2.24</v>
       </c>
@@ -2293,9 +2291,11 @@
         <v>5642227.858119039</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2.24</v>
+      </c>
       <c r="J50" t="n">
         <v>2.24</v>
       </c>
@@ -2332,9 +2332,11 @@
         <v>5641997.858119039</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2.24</v>
+      </c>
       <c r="J51" t="n">
         <v>2.24</v>
       </c>
@@ -2371,9 +2373,11 @@
         <v>5691997.858119039</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2.236</v>
+      </c>
       <c r="J52" t="n">
         <v>2.24</v>
       </c>
@@ -2410,9 +2414,11 @@
         <v>3665918.568419039</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2.24</v>
+      </c>
       <c r="J53" t="n">
         <v>2.24</v>
       </c>
@@ -2449,9 +2455,11 @@
         <v>3677828.131819039</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2.219</v>
+      </c>
       <c r="J54" t="n">
         <v>2.24</v>
       </c>
@@ -2488,9 +2496,11 @@
         <v>3361360.382319039</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2.24</v>
+      </c>
       <c r="J55" t="n">
         <v>2.24</v>
       </c>
@@ -2527,9 +2537,11 @@
         <v>3002718.856219039</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2.222</v>
+      </c>
       <c r="J56" t="n">
         <v>2.24</v>
       </c>
@@ -2566,7 +2578,7 @@
         <v>3011576.252219039</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>2.221</v>
@@ -2607,9 +2619,11 @@
         <v>2633888.791919039</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2.258</v>
+      </c>
       <c r="J58" t="n">
         <v>2.24</v>
       </c>
@@ -2646,7 +2660,7 @@
         <v>2720730.338219039</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>2.236</v>
@@ -2687,7 +2701,7 @@
         <v>2962104.299419039</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>2.238</v>
@@ -2728,7 +2742,7 @@
         <v>2931864.299419039</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>2.239</v>
@@ -2769,7 +2783,7 @@
         <v>2942557.548919039</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>2.226</v>
@@ -2810,7 +2824,7 @@
         <v>2947557.548919039</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>2.228</v>
@@ -2851,7 +2865,7 @@
         <v>3101352.685319039</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>2.249</v>
@@ -2892,7 +2906,7 @@
         <v>2530609.880619039</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>2.255</v>
@@ -2933,7 +2947,7 @@
         <v>2530609.880619039</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>2.253</v>
@@ -2974,9 +2988,11 @@
         <v>2530609.880619039</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2.253</v>
+      </c>
       <c r="J67" t="n">
         <v>2.24</v>
       </c>
@@ -3013,7 +3029,7 @@
         <v>2530379.880619039</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>2.253</v>
@@ -3054,7 +3070,7 @@
         <v>2530379.880619039</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>2.228</v>
@@ -3095,7 +3111,7 @@
         <v>2682104.748619039</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>2.228</v>
@@ -3136,7 +3152,7 @@
         <v>3832704.748619039</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>2.229</v>
@@ -3177,7 +3193,7 @@
         <v>3832934.748619039</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>2.23</v>
@@ -3218,7 +3234,7 @@
         <v>3901187.301619038</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>2.231</v>
@@ -3259,7 +3275,7 @@
         <v>4066213.361619039</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>2.24</v>
@@ -3300,7 +3316,7 @@
         <v>4080040.528819039</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>2.249</v>
@@ -3341,7 +3357,7 @@
         <v>4080040.528819039</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>2.26</v>
@@ -3382,9 +3398,11 @@
         <v>4556616.899819039</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>2.26</v>
+      </c>
       <c r="J77" t="n">
         <v>2.24</v>
       </c>
@@ -3538,11 +3556,9 @@
         <v>3706368.017919038</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="n">
-        <v>2.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
         <v>2.24</v>
       </c>
@@ -3579,7 +3595,7 @@
         <v>3862548.293919038</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>2.232</v>
@@ -3776,7 +3792,7 @@
         <v>3846117.053919039</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>2.241</v>
@@ -3817,9 +3833,11 @@
         <v>3846117.053919039</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>2.268</v>
+      </c>
       <c r="J88" t="n">
         <v>2.24</v>
       </c>
@@ -3856,9 +3874,11 @@
         <v>3846117.053919039</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>2.268</v>
+      </c>
       <c r="J89" t="n">
         <v>2.24</v>
       </c>
@@ -3895,9 +3915,11 @@
         <v>3846561.053919039</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>2.268</v>
+      </c>
       <c r="J90" t="n">
         <v>2.24</v>
       </c>
@@ -5221,9 +5243,11 @@
         <v>2282500.867819038</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>2.242</v>
+      </c>
       <c r="J124" t="n">
         <v>2.24</v>
       </c>
@@ -5260,9 +5284,11 @@
         <v>2282500.867819038</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>2.242</v>
+      </c>
       <c r="J125" t="n">
         <v>2.24</v>
       </c>
@@ -5299,9 +5325,11 @@
         <v>2285020.867819038</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>2.242</v>
+      </c>
       <c r="J126" t="n">
         <v>2.24</v>
       </c>
@@ -5338,9 +5366,11 @@
         <v>2236818.140919038</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>2.259</v>
+      </c>
       <c r="J127" t="n">
         <v>2.24</v>
       </c>
@@ -5377,9 +5407,11 @@
         <v>2251119.054119038</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>2.237</v>
+      </c>
       <c r="J128" t="n">
         <v>2.24</v>
       </c>
@@ -5416,9 +5448,11 @@
         <v>2251119.054119038</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>2.24</v>
+      </c>
       <c r="J129" t="n">
         <v>2.24</v>
       </c>
@@ -5455,9 +5489,11 @@
         <v>2269919.054119038</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>2.24</v>
+      </c>
       <c r="J130" t="n">
         <v>2.24</v>
       </c>
@@ -5494,9 +5530,11 @@
         <v>1149039.708119038</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>2.254</v>
+      </c>
       <c r="J131" t="n">
         <v>2.24</v>
       </c>
@@ -5533,9 +5571,11 @@
         <v>1690265.425619038</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>2.251</v>
+      </c>
       <c r="J132" t="n">
         <v>2.24</v>
       </c>
@@ -5572,9 +5612,11 @@
         <v>1690505.425619038</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>2.258</v>
+      </c>
       <c r="J133" t="n">
         <v>2.24</v>
       </c>
@@ -5611,9 +5653,11 @@
         <v>9120829.784319038</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>2.274</v>
+      </c>
       <c r="J134" t="n">
         <v>2.24</v>
       </c>
@@ -6352,9 +6396,11 @@
         <v>9835735.091619037</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>2.245</v>
+      </c>
       <c r="J153" t="n">
         <v>2.24</v>
       </c>
@@ -6391,9 +6437,11 @@
         <v>9962856.124319037</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>2.245</v>
+      </c>
       <c r="J154" t="n">
         <v>2.24</v>
       </c>
@@ -7717,7 +7765,7 @@
         <v>69755894.70444773</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
@@ -7756,7 +7804,7 @@
         <v>63303716.66197547</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
@@ -7795,7 +7843,7 @@
         <v>67226895.42297548</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
@@ -7834,7 +7882,7 @@
         <v>70957803.27097549</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
@@ -7873,7 +7921,7 @@
         <v>45954943.07047549</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
@@ -7912,7 +7960,7 @@
         <v>73800680.10597549</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
@@ -7920,13 +7968,15 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>1.070892857142857</v>
+      </c>
+      <c r="M193" t="n">
+        <v>1.024663677130045</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7951,17 +8001,11 @@
         <v>68086517.4953755</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7990,17 +8034,11 @@
         <v>68086517.4953755</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8029,17 +8067,11 @@
         <v>82841240.2557755</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8068,17 +8100,11 @@
         <v>66469464.11737549</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8107,17 +8133,11 @@
         <v>61620455.49097549</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8149,14 +8169,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8185,19 +8199,13 @@
         <v>54075257.96367549</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
-        <v>1.021785714285714</v>
+        <v>1</v>
       </c>
       <c r="M200" t="inlineStr"/>
     </row>
@@ -8224,7 +8232,7 @@
         <v>49590059.13927549</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -8257,7 +8265,7 @@
         <v>44118929.22247549</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -8323,7 +8331,7 @@
         <v>43363230.04117549</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -8356,7 +8364,7 @@
         <v>43128563.42397549</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8422,7 +8430,7 @@
         <v>43141591.73719366</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -9148,7 +9156,7 @@
         <v>41025477.11259367</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -9511,7 +9519,7 @@
         <v>41026106.33429366</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -13933,11 +13941,17 @@
         <v>20545653.75869367</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>2.226</v>
+      </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13966,11 +13980,17 @@
         <v>18447269.28559367</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>2.228</v>
+      </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13999,11 +14019,17 @@
         <v>18447269.28559367</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>2.226</v>
+      </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14032,7 +14058,7 @@
         <v>18397269.28559367</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I377" t="n">
         <v>2.226</v>
@@ -14040,7 +14066,7 @@
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L377" t="n">
@@ -14071,7 +14097,7 @@
         <v>18770549.76289367</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I378" t="n">
         <v>2.222</v>
@@ -14110,7 +14136,7 @@
         <v>18771726.20149367</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I379" t="n">
         <v>2.231</v>
@@ -14149,7 +14175,7 @@
         <v>18772656.05939367</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I380" t="n">
         <v>2.236</v>
@@ -14166,6 +14192,6 @@
       <c r="M380" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest FNB.xlsx
+++ b/BackTest/2020-01-21 BackTest FNB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -748,14 +748,10 @@
         <v>9790161.00441904</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
@@ -785,12 +781,12 @@
         <v>9789705.75191904</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>2.24</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -824,14 +820,10 @@
         <v>9789705.75191904</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.231</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -870,9 +862,7 @@
       <c r="I14" t="n">
         <v>2.231</v>
       </c>
-      <c r="J14" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -906,14 +896,10 @@
         <v>9861060.453619041</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.241</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -950,9 +936,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -989,9 +973,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1028,9 +1010,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1067,9 +1047,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1106,9 +1084,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1145,9 +1121,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1184,9 +1158,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1223,9 +1195,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1262,9 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1301,9 +1269,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1340,9 +1306,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1379,9 +1343,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1418,9 +1380,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1457,9 +1417,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1496,9 +1454,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1532,14 +1488,10 @@
         <v>11234190.73611904</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>2.265</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1576,9 +1528,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1612,14 +1562,10 @@
         <v>11233958.73611904</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2.265</v>
-      </c>
-      <c r="J33" t="n">
-        <v>2.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1656,9 +1602,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1695,9 +1639,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1734,9 +1676,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1773,9 +1713,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1812,9 +1750,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1848,14 +1784,10 @@
         <v>9531245.202119039</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2.261</v>
-      </c>
-      <c r="J39" t="n">
-        <v>2.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1889,14 +1821,10 @@
         <v>9531005.202119039</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>2.261</v>
-      </c>
-      <c r="J40" t="n">
-        <v>2.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1930,14 +1858,10 @@
         <v>9531005.202119039</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2.255</v>
-      </c>
-      <c r="J41" t="n">
-        <v>2.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1974,9 +1898,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2013,9 +1935,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2054,9 +1974,7 @@
       <c r="I44" t="n">
         <v>2.233</v>
       </c>
-      <c r="J44" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2093,9 +2011,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2132,9 +2048,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2168,14 +2082,10 @@
         <v>5642457.858119039</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2209,14 +2119,10 @@
         <v>5642227.858119039</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2250,14 +2156,10 @@
         <v>5642227.858119039</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="J49" t="n">
-        <v>2.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2291,14 +2193,10 @@
         <v>5642227.858119039</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2332,14 +2230,10 @@
         <v>5641997.858119039</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="J51" t="n">
-        <v>2.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2378,9 +2272,7 @@
       <c r="I52" t="n">
         <v>2.236</v>
       </c>
-      <c r="J52" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2419,9 +2311,7 @@
       <c r="I53" t="n">
         <v>2.24</v>
       </c>
-      <c r="J53" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2460,9 +2350,7 @@
       <c r="I54" t="n">
         <v>2.219</v>
       </c>
-      <c r="J54" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2496,14 +2384,10 @@
         <v>3361360.382319039</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2542,9 +2426,7 @@
       <c r="I56" t="n">
         <v>2.222</v>
       </c>
-      <c r="J56" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2583,9 +2465,7 @@
       <c r="I57" t="n">
         <v>2.221</v>
       </c>
-      <c r="J57" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2624,9 +2504,7 @@
       <c r="I58" t="n">
         <v>2.258</v>
       </c>
-      <c r="J58" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2665,9 +2543,7 @@
       <c r="I59" t="n">
         <v>2.236</v>
       </c>
-      <c r="J59" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2706,9 +2582,7 @@
       <c r="I60" t="n">
         <v>2.238</v>
       </c>
-      <c r="J60" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2747,9 +2621,7 @@
       <c r="I61" t="n">
         <v>2.239</v>
       </c>
-      <c r="J61" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2788,9 +2660,7 @@
       <c r="I62" t="n">
         <v>2.226</v>
       </c>
-      <c r="J62" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2829,9 +2699,7 @@
       <c r="I63" t="n">
         <v>2.228</v>
       </c>
-      <c r="J63" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2870,9 +2738,7 @@
       <c r="I64" t="n">
         <v>2.249</v>
       </c>
-      <c r="J64" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2911,9 +2777,7 @@
       <c r="I65" t="n">
         <v>2.255</v>
       </c>
-      <c r="J65" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2952,9 +2816,7 @@
       <c r="I66" t="n">
         <v>2.253</v>
       </c>
-      <c r="J66" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2993,9 +2855,7 @@
       <c r="I67" t="n">
         <v>2.253</v>
       </c>
-      <c r="J67" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3034,9 +2894,7 @@
       <c r="I68" t="n">
         <v>2.253</v>
       </c>
-      <c r="J68" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3075,9 +2933,7 @@
       <c r="I69" t="n">
         <v>2.228</v>
       </c>
-      <c r="J69" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3116,9 +2972,7 @@
       <c r="I70" t="n">
         <v>2.228</v>
       </c>
-      <c r="J70" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3157,9 +3011,7 @@
       <c r="I71" t="n">
         <v>2.229</v>
       </c>
-      <c r="J71" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3198,9 +3050,7 @@
       <c r="I72" t="n">
         <v>2.23</v>
       </c>
-      <c r="J72" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3239,9 +3089,7 @@
       <c r="I73" t="n">
         <v>2.231</v>
       </c>
-      <c r="J73" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3280,9 +3128,7 @@
       <c r="I74" t="n">
         <v>2.24</v>
       </c>
-      <c r="J74" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3321,9 +3167,7 @@
       <c r="I75" t="n">
         <v>2.249</v>
       </c>
-      <c r="J75" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3362,9 +3206,7 @@
       <c r="I76" t="n">
         <v>2.26</v>
       </c>
-      <c r="J76" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3403,9 +3245,7 @@
       <c r="I77" t="n">
         <v>2.26</v>
       </c>
-      <c r="J77" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3442,9 +3282,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3481,9 +3319,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3520,9 +3356,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3559,9 +3393,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3595,14 +3427,10 @@
         <v>3862548.293919038</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>2.232</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3639,9 +3467,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3678,9 +3504,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3714,12 +3538,12 @@
         <v>3645887.053919039</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>2.24</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>2.241</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3756,9 +3580,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3792,14 +3614,10 @@
         <v>3846117.053919039</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>2.241</v>
-      </c>
-      <c r="J87" t="n">
-        <v>2.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3833,14 +3651,10 @@
         <v>3846117.053919039</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>2.268</v>
-      </c>
-      <c r="J88" t="n">
-        <v>2.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3874,14 +3688,10 @@
         <v>3846117.053919039</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>2.268</v>
-      </c>
-      <c r="J89" t="n">
-        <v>2.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3915,14 +3725,10 @@
         <v>3846561.053919039</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>2.268</v>
-      </c>
-      <c r="J90" t="n">
-        <v>2.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3959,9 +3765,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3998,9 +3802,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4037,9 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4076,9 +3876,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4115,9 +3913,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4154,9 +3950,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4193,9 +3987,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4232,9 +4024,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4271,9 +4061,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4310,9 +4098,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4349,9 +4135,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4388,9 +4172,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4427,9 +4209,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4466,9 +4246,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4505,9 +4283,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4544,9 +4320,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4583,9 +4357,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4622,9 +4394,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4661,9 +4431,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4700,9 +4468,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4739,9 +4505,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4778,9 +4542,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4817,9 +4579,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4856,9 +4616,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4895,9 +4653,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4934,9 +4690,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4970,12 +4724,12 @@
         <v>3768581.226219038</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>2.24</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>2.259</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5009,12 +4763,12 @@
         <v>4106345.748319039</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>2.24</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>2.252</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5048,12 +4802,12 @@
         <v>3899591.925519038</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>2.24</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>2.274</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5087,12 +4841,12 @@
         <v>2937982.127519039</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>2.24</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>2.246</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5126,12 +4880,12 @@
         <v>2938226.127519039</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>2.24</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>2.242</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5168,9 +4922,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5207,9 +4959,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5248,9 +4998,7 @@
       <c r="I124" t="n">
         <v>2.242</v>
       </c>
-      <c r="J124" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5289,9 +5037,7 @@
       <c r="I125" t="n">
         <v>2.242</v>
       </c>
-      <c r="J125" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5330,9 +5076,7 @@
       <c r="I126" t="n">
         <v>2.242</v>
       </c>
-      <c r="J126" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5371,9 +5115,7 @@
       <c r="I127" t="n">
         <v>2.259</v>
       </c>
-      <c r="J127" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5412,9 +5154,7 @@
       <c r="I128" t="n">
         <v>2.237</v>
       </c>
-      <c r="J128" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5453,9 +5193,7 @@
       <c r="I129" t="n">
         <v>2.24</v>
       </c>
-      <c r="J129" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5494,9 +5232,7 @@
       <c r="I130" t="n">
         <v>2.24</v>
       </c>
-      <c r="J130" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5535,9 +5271,7 @@
       <c r="I131" t="n">
         <v>2.254</v>
       </c>
-      <c r="J131" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5576,9 +5310,7 @@
       <c r="I132" t="n">
         <v>2.251</v>
       </c>
-      <c r="J132" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5617,9 +5349,7 @@
       <c r="I133" t="n">
         <v>2.258</v>
       </c>
-      <c r="J133" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5658,9 +5388,7 @@
       <c r="I134" t="n">
         <v>2.274</v>
       </c>
-      <c r="J134" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5697,9 +5425,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5736,9 +5462,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5775,9 +5499,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5814,9 +5536,7 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5853,9 +5573,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5892,9 +5610,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5931,9 +5647,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5970,9 +5684,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6009,9 +5721,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6048,9 +5758,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6087,9 +5795,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6126,9 +5832,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6165,9 +5869,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6204,9 +5906,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6243,9 +5943,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6282,9 +5980,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6321,9 +6017,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6360,9 +6054,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6396,14 +6088,10 @@
         <v>9835735.091619037</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>2.245</v>
-      </c>
-      <c r="J153" t="n">
-        <v>2.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6442,9 +6130,7 @@
       <c r="I154" t="n">
         <v>2.245</v>
       </c>
-      <c r="J154" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6481,9 +6167,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6520,9 +6204,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6559,9 +6241,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6598,9 +6278,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6637,9 +6315,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6676,9 +6352,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6715,9 +6389,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6754,9 +6426,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6793,9 +6463,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6832,9 +6500,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6871,9 +6537,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6910,9 +6574,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6949,9 +6611,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6988,9 +6648,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7027,9 +6685,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7066,9 +6722,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7105,9 +6759,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7144,9 +6796,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7183,9 +6833,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7222,9 +6870,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7261,9 +6907,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7300,9 +6944,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7339,9 +6981,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7378,9 +7018,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7417,9 +7055,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7456,9 +7092,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7495,9 +7129,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7534,9 +7166,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7573,9 +7203,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7612,9 +7240,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7648,20 +7274,16 @@
         <v>38634216.65634773</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>2.24</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
@@ -7687,17 +7309,11 @@
         <v>56746332.32764773</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7726,17 +7342,11 @@
         <v>64225893.16344773</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7765,17 +7375,11 @@
         <v>69755894.70444773</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7807,14 +7411,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7846,14 +7444,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7885,14 +7477,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7924,14 +7510,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7960,23 +7540,15 @@
         <v>73800680.10597549</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
-        <v>1.070892857142857</v>
-      </c>
-      <c r="M193" t="n">
-        <v>1.024663677130045</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8001,7 +7573,7 @@
         <v>68086517.4953755</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -8034,7 +7606,7 @@
         <v>68086517.4953755</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -8100,7 +7672,7 @@
         <v>66469464.11737549</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -8133,7 +7705,7 @@
         <v>61620455.49097549</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -8199,7 +7771,7 @@
         <v>54075257.96367549</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -8232,7 +7804,7 @@
         <v>49590059.13927549</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -8529,7 +8101,7 @@
         <v>41261292.77299366</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8562,7 +8134,7 @@
         <v>41261292.77299366</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8892,7 +8464,7 @@
         <v>41454396.73339367</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8925,7 +8497,7 @@
         <v>41265457.74089367</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -9156,7 +8728,7 @@
         <v>41025477.11259367</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -9519,7 +9091,7 @@
         <v>41026106.33429366</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -13941,17 +13513,11 @@
         <v>20545653.75869367</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
-      </c>
-      <c r="I374" t="n">
-        <v>2.226</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13980,17 +13546,11 @@
         <v>18447269.28559367</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
-      </c>
-      <c r="I375" t="n">
-        <v>2.228</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14019,17 +13579,11 @@
         <v>18447269.28559367</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
-      </c>
-      <c r="I376" t="n">
-        <v>2.226</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14058,17 +13612,11 @@
         <v>18397269.28559367</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
-      </c>
-      <c r="I377" t="n">
-        <v>2.226</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14097,17 +13645,11 @@
         <v>18770549.76289367</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
-      </c>
-      <c r="I378" t="n">
-        <v>2.222</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14136,17 +13678,11 @@
         <v>18771726.20149367</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
-      </c>
-      <c r="I379" t="n">
-        <v>2.231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14175,23 +13711,17 @@
         <v>18772656.05939367</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
-      </c>
-      <c r="I380" t="n">
-        <v>2.236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
       <c r="M380" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest FNB.xlsx
+++ b/BackTest/2020-01-21 BackTest FNB.xlsx
@@ -781,17 +781,11 @@
         <v>9789705.75191904</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -824,11 +818,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -857,17 +847,11 @@
         <v>9810677.847119041</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -900,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -937,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -974,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1011,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1048,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1085,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1122,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1159,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1196,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1233,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1270,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1307,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1344,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1381,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1418,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1455,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1492,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1529,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1566,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1603,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1640,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1677,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1714,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1751,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1788,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1825,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1862,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1899,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1969,17 +1837,11 @@
         <v>5700236.636719039</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>2.233</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2012,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2049,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2086,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2123,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2160,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2193,15 +2035,15 @@
         <v>5642227.858119039</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2230,13 +2072,17 @@
         <v>5641997.858119039</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -2272,10 +2118,12 @@
       <c r="I52" t="n">
         <v>2.236</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -2311,10 +2159,12 @@
       <c r="I53" t="n">
         <v>2.24</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -2350,7 +2200,9 @@
       <c r="I54" t="n">
         <v>2.219</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2384,10 +2236,14 @@
         <v>3361360.382319039</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2426,7 +2282,9 @@
       <c r="I56" t="n">
         <v>2.222</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2465,7 +2323,9 @@
       <c r="I57" t="n">
         <v>2.221</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2504,7 +2364,9 @@
       <c r="I58" t="n">
         <v>2.258</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2543,7 +2405,9 @@
       <c r="I59" t="n">
         <v>2.236</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2582,7 +2446,9 @@
       <c r="I60" t="n">
         <v>2.238</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2621,7 +2487,9 @@
       <c r="I61" t="n">
         <v>2.239</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2660,7 +2528,9 @@
       <c r="I62" t="n">
         <v>2.226</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2699,7 +2569,9 @@
       <c r="I63" t="n">
         <v>2.228</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2738,7 +2610,9 @@
       <c r="I64" t="n">
         <v>2.249</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2777,7 +2651,9 @@
       <c r="I65" t="n">
         <v>2.255</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2816,7 +2692,9 @@
       <c r="I66" t="n">
         <v>2.253</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2855,7 +2733,9 @@
       <c r="I67" t="n">
         <v>2.253</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2894,7 +2774,9 @@
       <c r="I68" t="n">
         <v>2.253</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2933,7 +2815,9 @@
       <c r="I69" t="n">
         <v>2.228</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2972,7 +2856,9 @@
       <c r="I70" t="n">
         <v>2.228</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3011,7 +2897,9 @@
       <c r="I71" t="n">
         <v>2.229</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3050,7 +2938,9 @@
       <c r="I72" t="n">
         <v>2.23</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3089,7 +2979,9 @@
       <c r="I73" t="n">
         <v>2.231</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3128,7 +3020,9 @@
       <c r="I74" t="n">
         <v>2.24</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3167,7 +3061,9 @@
       <c r="I75" t="n">
         <v>2.249</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3206,7 +3102,9 @@
       <c r="I76" t="n">
         <v>2.26</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3240,12 +3138,12 @@
         <v>4556616.899819039</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3282,7 +3180,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3319,7 +3219,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3356,7 +3258,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3393,7 +3297,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3430,7 +3336,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3467,7 +3375,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3504,7 +3414,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3538,12 +3450,12 @@
         <v>3645887.053919039</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>2.241</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3580,7 +3492,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3617,7 +3531,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3654,7 +3570,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3691,7 +3609,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3728,7 +3648,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3765,7 +3687,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3802,7 +3726,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3839,7 +3765,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3876,7 +3804,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3913,7 +3843,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3950,7 +3882,9 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3987,7 +3921,9 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4024,7 +3960,9 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4061,7 +3999,9 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4098,7 +4038,9 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4135,7 +4077,9 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4172,7 +4116,9 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4209,7 +4155,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4246,7 +4194,9 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4283,7 +4233,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4320,7 +4272,9 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4357,7 +4311,9 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4394,7 +4350,9 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4431,7 +4389,9 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4468,7 +4428,9 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4505,7 +4467,9 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4542,7 +4506,9 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4579,7 +4545,9 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4616,7 +4584,9 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4653,7 +4623,9 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4690,7 +4662,9 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4724,12 +4698,12 @@
         <v>3768581.226219038</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>2.259</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4763,12 +4737,12 @@
         <v>4106345.748319039</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>2.252</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4802,12 +4776,12 @@
         <v>3899591.925519038</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>2.274</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4841,12 +4815,12 @@
         <v>2937982.127519039</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>2.246</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4880,12 +4854,12 @@
         <v>2938226.127519039</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>2.242</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4922,7 +4896,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4959,7 +4935,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4993,12 +4971,12 @@
         <v>2282500.867819038</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>2.242</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5037,7 +5015,9 @@
       <c r="I125" t="n">
         <v>2.242</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5076,7 +5056,9 @@
       <c r="I126" t="n">
         <v>2.242</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5115,7 +5097,9 @@
       <c r="I127" t="n">
         <v>2.259</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5154,7 +5138,9 @@
       <c r="I128" t="n">
         <v>2.237</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5193,7 +5179,9 @@
       <c r="I129" t="n">
         <v>2.24</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5232,7 +5220,9 @@
       <c r="I130" t="n">
         <v>2.24</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5271,7 +5261,9 @@
       <c r="I131" t="n">
         <v>2.254</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5310,7 +5302,9 @@
       <c r="I132" t="n">
         <v>2.251</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5349,7 +5343,9 @@
       <c r="I133" t="n">
         <v>2.258</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5388,7 +5384,9 @@
       <c r="I134" t="n">
         <v>2.274</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5425,7 +5423,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5462,7 +5462,9 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5499,7 +5501,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5536,7 +5540,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5573,7 +5579,9 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5610,7 +5618,9 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5647,7 +5657,9 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5684,7 +5696,9 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5721,7 +5735,9 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5758,7 +5774,9 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5795,7 +5813,9 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5832,7 +5852,9 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5869,7 +5891,9 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5906,7 +5930,9 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5943,7 +5969,9 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5980,7 +6008,9 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6017,7 +6047,9 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6054,7 +6086,9 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6091,7 +6125,9 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6125,12 +6161,12 @@
         <v>9962856.124319037</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>2.245</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6167,7 +6203,9 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6204,7 +6242,9 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6241,7 +6281,9 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6278,7 +6320,9 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6315,7 +6359,9 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6352,7 +6398,9 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6389,7 +6437,9 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6426,7 +6476,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6463,7 +6515,9 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6500,7 +6554,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6537,7 +6593,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6574,7 +6632,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6611,7 +6671,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6648,7 +6710,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6685,7 +6749,9 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6722,7 +6788,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6759,7 +6827,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6796,7 +6866,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6833,7 +6905,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6870,7 +6944,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6907,7 +6983,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6944,7 +7022,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6981,7 +7061,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7018,7 +7100,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7055,7 +7139,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7092,7 +7178,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7129,7 +7217,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7166,7 +7256,9 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7203,7 +7295,9 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7240,7 +7334,9 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7274,16 +7370,20 @@
         <v>38634216.65634773</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>2.24</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L185" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
       <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
@@ -7309,11 +7409,17 @@
         <v>56746332.32764773</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7342,11 +7448,17 @@
         <v>64225893.16344773</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7378,12 +7490,20 @@
         <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>1.121785714285714</v>
+      </c>
+      <c r="M188" t="n">
+        <v>1.03542600896861</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7408,7 +7528,7 @@
         <v>63303716.66197547</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7441,7 +7561,7 @@
         <v>67226895.42297548</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7474,7 +7594,7 @@
         <v>70957803.27097549</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7507,7 +7627,7 @@
         <v>45954943.07047549</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7540,7 +7660,7 @@
         <v>73800680.10597549</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7573,7 +7693,7 @@
         <v>68086517.4953755</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7606,7 +7726,7 @@
         <v>68086517.4953755</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7639,7 +7759,7 @@
         <v>82841240.2557755</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -8101,7 +8221,7 @@
         <v>41261292.77299366</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8134,7 +8254,7 @@
         <v>41261292.77299366</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8464,7 +8584,7 @@
         <v>41454396.73339367</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8497,7 +8617,7 @@
         <v>41265457.74089367</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
